--- a/水泥.excel/1102/1102(102.1~105.4)4.xlsx
+++ b/水泥.excel/1102/1102(102.1~105.4)4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
   <si>
     <t>金額_x</t>
   </si>
@@ -115,1233 +115,87 @@
     <t>備供出售金融資產未實現評價損益</t>
   </si>
   <si>
-    <t>-1,434,252</t>
-  </si>
-  <si>
-    <t>-1,407,949</t>
-  </si>
-  <si>
-    <t>506,811</t>
-  </si>
-  <si>
-    <t>-1,034,586</t>
-  </si>
-  <si>
-    <t>-868,227</t>
-  </si>
-  <si>
-    <t>-854,392</t>
-  </si>
-  <si>
-    <t>-214,124</t>
-  </si>
-  <si>
-    <t>1,186,536</t>
-  </si>
-  <si>
-    <t>4,758,940</t>
-  </si>
-  <si>
-    <t>-1,975,459</t>
-  </si>
-  <si>
-    <t>-676,921</t>
-  </si>
-  <si>
-    <t>-1,216,565</t>
-  </si>
-  <si>
-    <t>-7,003,495</t>
-  </si>
-  <si>
-    <t>-1,016,370</t>
-  </si>
-  <si>
-    <t>27,393</t>
-  </si>
-  <si>
-    <t>-7,989,160</t>
-  </si>
-  <si>
     <t>其他利益及損失淨額</t>
   </si>
   <si>
-    <t>-491,001</t>
-  </si>
-  <si>
-    <t>234,770</t>
-  </si>
-  <si>
-    <t>-249,245</t>
-  </si>
-  <si>
-    <t>-259,150</t>
-  </si>
-  <si>
-    <t>-523,400</t>
-  </si>
-  <si>
-    <t>586,919</t>
-  </si>
-  <si>
-    <t>20,354</t>
-  </si>
-  <si>
-    <t>1,209,572</t>
-  </si>
-  <si>
-    <t>79,844</t>
-  </si>
-  <si>
-    <t>953,276</t>
-  </si>
-  <si>
-    <t>-1,138,894</t>
-  </si>
-  <si>
-    <t>-66,725</t>
-  </si>
-  <si>
-    <t>-24,603</t>
-  </si>
-  <si>
-    <t>-772,378</t>
-  </si>
-  <si>
-    <t>-185,201</t>
-  </si>
-  <si>
-    <t>-526,644</t>
-  </si>
-  <si>
     <t>其他收入</t>
   </si>
   <si>
-    <t>1,140,953</t>
-  </si>
-  <si>
-    <t>676,200</t>
-  </si>
-  <si>
-    <t>335,213</t>
-  </si>
-  <si>
-    <t>2,324,762</t>
-  </si>
-  <si>
-    <t>242,432</t>
-  </si>
-  <si>
-    <t>728,197</t>
-  </si>
-  <si>
-    <t>306,677</t>
-  </si>
-  <si>
-    <t>1,579,088</t>
-  </si>
-  <si>
-    <t>179,735</t>
-  </si>
-  <si>
-    <t>700,281</t>
-  </si>
-  <si>
-    <t>285,349</t>
-  </si>
-  <si>
-    <t>1,502,671</t>
-  </si>
-  <si>
-    <t>375,195</t>
-  </si>
-  <si>
-    <t>531,606</t>
-  </si>
-  <si>
-    <t>92,736</t>
-  </si>
-  <si>
-    <t>1,058,684</t>
-  </si>
-  <si>
     <t>其他綜合損益（淨額）</t>
   </si>
   <si>
-    <t>-125,038</t>
-  </si>
-  <si>
-    <t>-531,559</t>
-  </si>
-  <si>
-    <t>102,341</t>
-  </si>
-  <si>
-    <t>2,334,447</t>
-  </si>
-  <si>
-    <t>-362,929</t>
-  </si>
-  <si>
-    <t>-2,780,775</t>
-  </si>
-  <si>
-    <t>1,379,410</t>
-  </si>
-  <si>
-    <t>4,827,293</t>
-  </si>
-  <si>
-    <t>3,927,296</t>
-  </si>
-  <si>
-    <t>-3,256,100</t>
-  </si>
-  <si>
-    <t>1,657,709</t>
-  </si>
-  <si>
-    <t>-3,860,529</t>
-  </si>
-  <si>
-    <t>-8,936,360</t>
-  </si>
-  <si>
-    <t>-2,589,855</t>
-  </si>
-  <si>
-    <t>-2,522,247</t>
-  </si>
-  <si>
-    <t>-14,688,396</t>
-  </si>
-  <si>
     <t>國外營運機構財務報表換算之兌換差額</t>
   </si>
   <si>
-    <t>1,220,801</t>
-  </si>
-  <si>
-    <t>914,604</t>
-  </si>
-  <si>
-    <t>-418,413</t>
-  </si>
-  <si>
-    <t>2,532,355</t>
-  </si>
-  <si>
-    <t>719,397</t>
-  </si>
-  <si>
-    <t>-994,881</t>
-  </si>
-  <si>
-    <t>904,955</t>
-  </si>
-  <si>
-    <t>2,980,569</t>
-  </si>
-  <si>
-    <t>-862,180</t>
-  </si>
-  <si>
-    <t>-494,006</t>
-  </si>
-  <si>
-    <t>1,217,257</t>
-  </si>
-  <si>
-    <t>-1,184,681</t>
-  </si>
-  <si>
-    <t>-707,947</t>
-  </si>
-  <si>
-    <t>-1,076,459</t>
-  </si>
-  <si>
-    <t>-1,709,513</t>
-  </si>
-  <si>
-    <t>-4,016,914</t>
-  </si>
-  <si>
     <t>基本每股盈餘</t>
   </si>
   <si>
-    <t>0.40</t>
-  </si>
-  <si>
-    <t>0.83</t>
-  </si>
-  <si>
-    <t>0.34</t>
-  </si>
-  <si>
-    <t>2.21</t>
-  </si>
-  <si>
-    <t>0.47</t>
-  </si>
-  <si>
-    <t>1.21</t>
-  </si>
-  <si>
-    <t>0.64</t>
-  </si>
-  <si>
-    <t>2.98</t>
-  </si>
-  <si>
-    <t>0.94</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>1.55</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>0.38</t>
-  </si>
-  <si>
-    <t>0.30</t>
-  </si>
-  <si>
-    <t>1.26</t>
-  </si>
-  <si>
     <t>已實現銷貨（損）益</t>
   </si>
   <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>441</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>449</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>1,041</t>
-  </si>
-  <si>
     <t>所得稅費用（利益）合計</t>
   </si>
   <si>
-    <t>218,286</t>
-  </si>
-  <si>
-    <t>259,500</t>
-  </si>
-  <si>
-    <t>333,938</t>
-  </si>
-  <si>
-    <t>1,825,950</t>
-  </si>
-  <si>
-    <t>330,848</t>
-  </si>
-  <si>
-    <t>686,386</t>
-  </si>
-  <si>
-    <t>357,809</t>
-  </si>
-  <si>
-    <t>2,813,741</t>
-  </si>
-  <si>
-    <t>302,412</t>
-  </si>
-  <si>
-    <t>247,545</t>
-  </si>
-  <si>
-    <t>132,576</t>
-  </si>
-  <si>
-    <t>1,879,675</t>
-  </si>
-  <si>
-    <t>88,091</t>
-  </si>
-  <si>
-    <t>326,198</t>
-  </si>
-  <si>
-    <t>208,343</t>
-  </si>
-  <si>
-    <t>1,793,292</t>
-  </si>
-  <si>
     <t>採用權益法認列之關聯企業及合資之其他綜合損益之份額合計</t>
   </si>
   <si>
-    <t>82,876</t>
-  </si>
-  <si>
-    <t>-46,237</t>
-  </si>
-  <si>
-    <t>11,523</t>
-  </si>
-  <si>
-    <t>573,480</t>
-  </si>
-  <si>
-    <t>-340,082</t>
-  </si>
-  <si>
-    <t>-935,581</t>
-  </si>
-  <si>
-    <t>683,983</t>
-  </si>
-  <si>
-    <t>527,962</t>
-  </si>
-  <si>
-    <t>-17</t>
-  </si>
-  <si>
-    <t>-285,305</t>
-  </si>
-  <si>
-    <t>-140,079</t>
-  </si>
-  <si>
     <t>採用權益法認列之關聯企業及合資損益之份額淨額</t>
   </si>
   <si>
-    <t>1,025,067</t>
-  </si>
-  <si>
-    <t>800,492</t>
-  </si>
-  <si>
-    <t>611,715</t>
-  </si>
-  <si>
-    <t>3,208,725</t>
-  </si>
-  <si>
-    <t>1,042,631</t>
-  </si>
-  <si>
-    <t>1,476,399</t>
-  </si>
-  <si>
-    <t>1,089,616</t>
-  </si>
-  <si>
-    <t>4,350,273</t>
-  </si>
-  <si>
-    <t>960,033</t>
-  </si>
-  <si>
-    <t>1,079,034</t>
-  </si>
-  <si>
-    <t>378,902</t>
-  </si>
-  <si>
-    <t>2,986,137</t>
-  </si>
-  <si>
-    <t>-55,695</t>
-  </si>
-  <si>
-    <t>333,391</t>
-  </si>
-  <si>
-    <t>374,679</t>
-  </si>
-  <si>
-    <t>1,349,719</t>
-  </si>
-  <si>
     <t>採用權益法認列關聯企業及合資之其他綜合損益之份額-可能重分類至損益之項目</t>
   </si>
   <si>
-    <t>45,564</t>
-  </si>
-  <si>
-    <t>-790,428</t>
-  </si>
-  <si>
-    <t>1,113,981</t>
-  </si>
-  <si>
-    <t>-722,900</t>
-  </si>
-  <si>
-    <t>-1,224,918</t>
-  </si>
-  <si>
-    <t>-497,026</t>
-  </si>
-  <si>
-    <t>-840,127</t>
-  </si>
-  <si>
-    <t>-2,482,376</t>
-  </si>
-  <si>
     <t>未實現銷貨（損）益</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>358</t>
-  </si>
-  <si>
-    <t>445</t>
-  </si>
-  <si>
-    <t>-136</t>
-  </si>
-  <si>
-    <t>586</t>
-  </si>
-  <si>
-    <t>1,263</t>
-  </si>
-  <si>
-    <t>-404</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
     <t>本期淨利（淨損）</t>
   </si>
   <si>
-    <t>1,371,559</t>
-  </si>
-  <si>
-    <t>2,934,680</t>
-  </si>
-  <si>
-    <t>1,361,389</t>
-  </si>
-  <si>
-    <t>8,451,890</t>
-  </si>
-  <si>
-    <t>1,683,231</t>
-  </si>
-  <si>
-    <t>4,195,441</t>
-  </si>
-  <si>
-    <t>2,360,599</t>
-  </si>
-  <si>
-    <t>10,905,998</t>
-  </si>
-  <si>
-    <t>1,542,288</t>
-  </si>
-  <si>
-    <t>3,033,963</t>
-  </si>
-  <si>
-    <t>-169,697</t>
-  </si>
-  <si>
-    <t>4,934,483</t>
-  </si>
-  <si>
-    <t>194,459</t>
-  </si>
-  <si>
-    <t>1,337,358</t>
-  </si>
-  <si>
-    <t>1,170,163</t>
-  </si>
-  <si>
-    <t>4,683,297</t>
-  </si>
-  <si>
     <t>本期綜合損益總額</t>
   </si>
   <si>
-    <t>1,246,521</t>
-  </si>
-  <si>
-    <t>2,403,121</t>
-  </si>
-  <si>
-    <t>1,463,730</t>
-  </si>
-  <si>
-    <t>10,786,337</t>
-  </si>
-  <si>
-    <t>1,320,302</t>
-  </si>
-  <si>
-    <t>1,414,666</t>
-  </si>
-  <si>
-    <t>3,740,009</t>
-  </si>
-  <si>
-    <t>15,733,291</t>
-  </si>
-  <si>
-    <t>5,469,584</t>
-  </si>
-  <si>
-    <t>-222,137</t>
-  </si>
-  <si>
-    <t>1,488,012</t>
-  </si>
-  <si>
-    <t>1,073,954</t>
-  </si>
-  <si>
-    <t>-8,741,901</t>
-  </si>
-  <si>
-    <t>-1,252,497</t>
-  </si>
-  <si>
-    <t>-1,352,084</t>
-  </si>
-  <si>
-    <t>-10,005,099</t>
-  </si>
-  <si>
     <t>母公司業主（淨利／損）</t>
   </si>
   <si>
-    <t>1,213,452</t>
-  </si>
-  <si>
-    <t>2,500,283</t>
-  </si>
-  <si>
-    <t>1,042,187</t>
-  </si>
-  <si>
-    <t>6,805,830</t>
-  </si>
-  <si>
-    <t>1,439,813</t>
-  </si>
-  <si>
-    <t>3,734,816</t>
-  </si>
-  <si>
-    <t>2,024,069</t>
-  </si>
-  <si>
-    <t>9,361,635</t>
-  </si>
-  <si>
-    <t>1,468,473</t>
-  </si>
-  <si>
-    <t>2,888,526</t>
-  </si>
-  <si>
-    <t>64,042</t>
-  </si>
-  <si>
-    <t>4,860,241</t>
-  </si>
-  <si>
-    <t>199,130</t>
-  </si>
-  <si>
-    <t>1,205,901</t>
-  </si>
-  <si>
-    <t>936,584</t>
-  </si>
-  <si>
-    <t>3,945,769</t>
-  </si>
-  <si>
     <t>母公司業主（綜合損益）</t>
   </si>
   <si>
-    <t>718,662</t>
-  </si>
-  <si>
-    <t>1,693,730</t>
-  </si>
-  <si>
-    <t>1,267,750</t>
-  </si>
-  <si>
-    <t>8,373,288</t>
-  </si>
-  <si>
-    <t>873,472</t>
-  </si>
-  <si>
-    <t>1,247,525</t>
-  </si>
-  <si>
-    <t>3,126,996</t>
-  </si>
-  <si>
-    <t>13,273,390</t>
-  </si>
-  <si>
-    <t>5,633,392</t>
-  </si>
-  <si>
-    <t>-212,610</t>
-  </si>
-  <si>
-    <t>1,353,290</t>
-  </si>
-  <si>
-    <t>1,343,662</t>
-  </si>
-  <si>
-    <t>-8,505,796</t>
-  </si>
-  <si>
-    <t>-1,059,823</t>
-  </si>
-  <si>
-    <t>-1,083,282</t>
-  </si>
-  <si>
-    <t>-9,550,011</t>
-  </si>
-  <si>
     <t>營業利益（損失）</t>
   </si>
   <si>
-    <t>339,801</t>
-  </si>
-  <si>
-    <t>1,898,183</t>
-  </si>
-  <si>
-    <t>1,408,561</t>
-  </si>
-  <si>
-    <t>6,643,708</t>
-  </si>
-  <si>
-    <t>1,637,619</t>
-  </si>
-  <si>
-    <t>2,516,188</t>
-  </si>
-  <si>
-    <t>1,736,814</t>
-  </si>
-  <si>
-    <t>8,248,404</t>
-  </si>
-  <si>
-    <t>1,037,375</t>
-  </si>
-  <si>
-    <t>963,342</t>
-  </si>
-  <si>
-    <t>853,831</t>
-  </si>
-  <si>
-    <t>4,039,945</t>
-  </si>
-  <si>
-    <t>406,252</t>
-  </si>
-  <si>
-    <t>1,968,098</t>
-  </si>
-  <si>
-    <t>1,479,930</t>
-  </si>
-  <si>
-    <t>6,233,048</t>
-  </si>
-  <si>
     <t>營業外收入及支出合計</t>
   </si>
   <si>
-    <t>1,250,044</t>
-  </si>
-  <si>
-    <t>1,295,997</t>
-  </si>
-  <si>
-    <t>286,766</t>
-  </si>
-  <si>
-    <t>3,634,132</t>
-  </si>
-  <si>
-    <t>376,460</t>
-  </si>
-  <si>
-    <t>2,365,639</t>
-  </si>
-  <si>
-    <t>981,594</t>
-  </si>
-  <si>
-    <t>5,471,335</t>
-  </si>
-  <si>
-    <t>807,325</t>
-  </si>
-  <si>
-    <t>2,318,166</t>
-  </si>
-  <si>
-    <t>-890,952</t>
-  </si>
-  <si>
-    <t>2,774,213</t>
-  </si>
-  <si>
-    <t>-123,702</t>
-  </si>
-  <si>
-    <t>-304,542</t>
-  </si>
-  <si>
-    <t>-101,424</t>
-  </si>
-  <si>
-    <t>243,541</t>
-  </si>
-  <si>
     <t>營業成本合計</t>
   </si>
   <si>
-    <t>13,039,407</t>
-  </si>
-  <si>
-    <t>15,670,557</t>
-  </si>
-  <si>
-    <t>15,671,659</t>
-  </si>
-  <si>
-    <t>61,158,946</t>
-  </si>
-  <si>
-    <t>14,017,994</t>
-  </si>
-  <si>
-    <t>17,914,198</t>
-  </si>
-  <si>
-    <t>17,405,889</t>
-  </si>
-  <si>
-    <t>66,553,091</t>
-  </si>
-  <si>
-    <t>13,729,956</t>
-  </si>
-  <si>
-    <t>15,092,848</t>
-  </si>
-  <si>
-    <t>15,359,881</t>
-  </si>
-  <si>
-    <t>59,228,641</t>
-  </si>
-  <si>
-    <t>12,040,729</t>
-  </si>
-  <si>
-    <t>13,435,994</t>
-  </si>
-  <si>
-    <t>12,965,789</t>
-  </si>
-  <si>
-    <t>52,358,957</t>
-  </si>
-  <si>
     <t>營業收入合計</t>
   </si>
   <si>
-    <t>13,931,550</t>
-  </si>
-  <si>
-    <t>18,181,256</t>
-  </si>
-  <si>
-    <t>17,609,788</t>
-  </si>
-  <si>
-    <t>70,172,781</t>
-  </si>
-  <si>
-    <t>16,256,080</t>
-  </si>
-  <si>
-    <t>21,194,832</t>
-  </si>
-  <si>
-    <t>19,783,979</t>
-  </si>
-  <si>
-    <t>77,683,281</t>
-  </si>
-  <si>
-    <t>15,362,530</t>
-  </si>
-  <si>
-    <t>16,890,231</t>
-  </si>
-  <si>
-    <t>16,861,149</t>
-  </si>
-  <si>
-    <t>66,287,480</t>
-  </si>
-  <si>
-    <t>13,038,960</t>
-  </si>
-  <si>
-    <t>16,028,285</t>
-  </si>
-  <si>
-    <t>15,037,038</t>
-  </si>
-  <si>
-    <t>60,946,190</t>
-  </si>
-  <si>
     <t>營業毛利（毛損）</t>
   </si>
   <si>
-    <t>892,143</t>
-  </si>
-  <si>
-    <t>2,510,699</t>
-  </si>
-  <si>
-    <t>1,938,129</t>
-  </si>
-  <si>
-    <t>9,013,835</t>
-  </si>
-  <si>
-    <t>2,238,086</t>
-  </si>
-  <si>
-    <t>3,280,634</t>
-  </si>
-  <si>
-    <t>2,378,090</t>
-  </si>
-  <si>
-    <t>11,130,190</t>
-  </si>
-  <si>
-    <t>1,632,574</t>
-  </si>
-  <si>
-    <t>1,797,383</t>
-  </si>
-  <si>
-    <t>1,501,268</t>
-  </si>
-  <si>
-    <t>7,058,839</t>
-  </si>
-  <si>
-    <t>998,231</t>
-  </si>
-  <si>
-    <t>2,592,291</t>
-  </si>
-  <si>
-    <t>2,071,249</t>
-  </si>
-  <si>
-    <t>8,587,233</t>
-  </si>
-  <si>
     <t>營業毛利（毛損）淨額</t>
   </si>
   <si>
-    <t>892,180</t>
-  </si>
-  <si>
-    <t>2,510,687</t>
-  </si>
-  <si>
-    <t>1,938,103</t>
-  </si>
-  <si>
-    <t>9,013,803</t>
-  </si>
-  <si>
-    <t>2,237,728</t>
-  </si>
-  <si>
-    <t>3,280,189</t>
-  </si>
-  <si>
-    <t>2,378,226</t>
-  </si>
-  <si>
-    <t>11,129,604</t>
-  </si>
-  <si>
-    <t>1,631,311</t>
-  </si>
-  <si>
-    <t>1,797,824</t>
-  </si>
-  <si>
-    <t>1,501,672</t>
-  </si>
-  <si>
-    <t>7,058,747</t>
-  </si>
-  <si>
-    <t>998,432</t>
-  </si>
-  <si>
-    <t>2,592,740</t>
-  </si>
-  <si>
-    <t>2,071,279</t>
-  </si>
-  <si>
-    <t>8,588,274</t>
-  </si>
-  <si>
     <t>營業費用合計</t>
   </si>
   <si>
-    <t>552,379</t>
-  </si>
-  <si>
-    <t>612,504</t>
-  </si>
-  <si>
-    <t>529,542</t>
-  </si>
-  <si>
-    <t>2,370,095</t>
-  </si>
-  <si>
-    <t>600,109</t>
-  </si>
-  <si>
-    <t>764,001</t>
-  </si>
-  <si>
-    <t>641,412</t>
-  </si>
-  <si>
-    <t>2,881,200</t>
-  </si>
-  <si>
-    <t>593,936</t>
-  </si>
-  <si>
-    <t>834,482</t>
-  </si>
-  <si>
-    <t>647,841</t>
-  </si>
-  <si>
-    <t>3,018,802</t>
-  </si>
-  <si>
-    <t>592,180</t>
-  </si>
-  <si>
-    <t>624,642</t>
-  </si>
-  <si>
-    <t>591,349</t>
-  </si>
-  <si>
-    <t>2,355,226</t>
-  </si>
-  <si>
     <t>現金流量避險</t>
   </si>
   <si>
-    <t>5,537</t>
-  </si>
-  <si>
-    <t>8,023</t>
-  </si>
-  <si>
-    <t>2,420</t>
-  </si>
-  <si>
-    <t>20,330</t>
-  </si>
-  <si>
-    <t>3,931</t>
-  </si>
-  <si>
-    <t>4,079</t>
-  </si>
-  <si>
-    <t>4,596</t>
-  </si>
-  <si>
-    <t>13,877</t>
-  </si>
-  <si>
     <t>現金流量避險中屬有效避險部分之避險工具利益(損失)</t>
   </si>
   <si>
-    <t>6,937</t>
-  </si>
-  <si>
-    <t>3,810</t>
-  </si>
-  <si>
-    <t>3,392</t>
-  </si>
-  <si>
-    <t>17,718</t>
-  </si>
-  <si>
     <t>確定福利計畫之再衡量數</t>
   </si>
   <si>
-    <t>262,379</t>
-  </si>
-  <si>
-    <t>4,146</t>
-  </si>
-  <si>
-    <t>-21,995</t>
-  </si>
-  <si>
-    <t>-468,796</t>
-  </si>
-  <si>
-    <t>-59,867</t>
-  </si>
-  <si>
     <t>稀釋每股盈餘</t>
   </si>
   <si>
-    <t>0.37</t>
-  </si>
-  <si>
-    <t>0.72</t>
-  </si>
-  <si>
-    <t>2.12</t>
-  </si>
-  <si>
-    <t>1.16</t>
-  </si>
-  <si>
-    <t>0.60</t>
-  </si>
-  <si>
-    <t>2.65</t>
-  </si>
-  <si>
-    <t>0.44</t>
-  </si>
-  <si>
-    <t>-0.02</t>
-  </si>
-  <si>
-    <t>1.32</t>
-  </si>
-  <si>
-    <t>1.24</t>
-  </si>
-  <si>
     <t>稅前淨利（淨損）</t>
   </si>
   <si>
-    <t>1,589,845</t>
-  </si>
-  <si>
-    <t>3,194,180</t>
-  </si>
-  <si>
-    <t>1,695,327</t>
-  </si>
-  <si>
-    <t>10,277,840</t>
-  </si>
-  <si>
-    <t>2,014,079</t>
-  </si>
-  <si>
-    <t>4,881,827</t>
-  </si>
-  <si>
-    <t>2,718,408</t>
-  </si>
-  <si>
-    <t>13,719,739</t>
-  </si>
-  <si>
-    <t>1,844,700</t>
-  </si>
-  <si>
-    <t>3,281,508</t>
-  </si>
-  <si>
-    <t>-37,121</t>
-  </si>
-  <si>
-    <t>6,814,158</t>
-  </si>
-  <si>
-    <t>282,550</t>
-  </si>
-  <si>
-    <t>1,663,556</t>
-  </si>
-  <si>
-    <t>1,378,506</t>
-  </si>
-  <si>
-    <t>6,476,589</t>
-  </si>
-  <si>
     <t>繼續營業單位本期淨利（淨損）</t>
   </si>
   <si>
@@ -1351,172 +205,16 @@
     <t>與其他綜合損益組成部分相關之所得稅</t>
   </si>
   <si>
-    <t>19,511</t>
-  </si>
-  <si>
-    <t>6,418</t>
-  </si>
-  <si>
-    <t>14,267</t>
-  </si>
-  <si>
     <t>財務成本淨額</t>
   </si>
   <si>
-    <t>424,975</t>
-  </si>
-  <si>
-    <t>415,465</t>
-  </si>
-  <si>
-    <t>410,917</t>
-  </si>
-  <si>
-    <t>1,640,205</t>
-  </si>
-  <si>
-    <t>385,203</t>
-  </si>
-  <si>
-    <t>425,876</t>
-  </si>
-  <si>
-    <t>435,053</t>
-  </si>
-  <si>
-    <t>1,667,598</t>
-  </si>
-  <si>
-    <t>412,287</t>
-  </si>
-  <si>
-    <t>414,425</t>
-  </si>
-  <si>
-    <t>416,309</t>
-  </si>
-  <si>
-    <t>1,647,870</t>
-  </si>
-  <si>
-    <t>418,599</t>
-  </si>
-  <si>
-    <t>397,161</t>
-  </si>
-  <si>
-    <t>383,638</t>
-  </si>
-  <si>
-    <t>1,638,218</t>
-  </si>
-  <si>
     <t>重估增值</t>
   </si>
   <si>
-    <t>128,470</t>
-  </si>
-  <si>
     <t>非控制權益（淨利／損）</t>
   </si>
   <si>
-    <t>158,107</t>
-  </si>
-  <si>
-    <t>434,397</t>
-  </si>
-  <si>
-    <t>319,202</t>
-  </si>
-  <si>
-    <t>1,646,060</t>
-  </si>
-  <si>
-    <t>243,418</t>
-  </si>
-  <si>
-    <t>460,625</t>
-  </si>
-  <si>
-    <t>336,530</t>
-  </si>
-  <si>
-    <t>1,544,363</t>
-  </si>
-  <si>
-    <t>73,815</t>
-  </si>
-  <si>
-    <t>145,437</t>
-  </si>
-  <si>
-    <t>-233,739</t>
-  </si>
-  <si>
-    <t>74,242</t>
-  </si>
-  <si>
-    <t>-4,671</t>
-  </si>
-  <si>
-    <t>131,457</t>
-  </si>
-  <si>
-    <t>233,579</t>
-  </si>
-  <si>
-    <t>737,528</t>
-  </si>
-  <si>
     <t>非控制權益（綜合損益）</t>
-  </si>
-  <si>
-    <t>527,859</t>
-  </si>
-  <si>
-    <t>709,391</t>
-  </si>
-  <si>
-    <t>195,980</t>
-  </si>
-  <si>
-    <t>2,413,049</t>
-  </si>
-  <si>
-    <t>446,830</t>
-  </si>
-  <si>
-    <t>167,141</t>
-  </si>
-  <si>
-    <t>613,013</t>
-  </si>
-  <si>
-    <t>2,459,901</t>
-  </si>
-  <si>
-    <t>-163,808</t>
-  </si>
-  <si>
-    <t>-9,527</t>
-  </si>
-  <si>
-    <t>134,722</t>
-  </si>
-  <si>
-    <t>-269,708</t>
-  </si>
-  <si>
-    <t>-236,105</t>
-  </si>
-  <si>
-    <t>-192,674</t>
-  </si>
-  <si>
-    <t>-268,802</t>
-  </si>
-  <si>
-    <t>-455,088</t>
   </si>
 </sst>
 </file>
@@ -1975,98 +673,98 @@
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B2" t="s">
-        <v>33</v>
+      <c r="B2" t="n">
+        <v>-1434252</v>
       </c>
       <c r="C2" t="n">
         <v>-10.29</v>
       </c>
-      <c r="D2" t="s">
-        <v>34</v>
+      <c r="D2" t="n">
+        <v>-1407949</v>
       </c>
       <c r="E2" t="n">
         <v>-7.74</v>
       </c>
-      <c r="F2" t="s">
-        <v>35</v>
+      <c r="F2" t="n">
+        <v>506811</v>
       </c>
       <c r="G2" t="n">
         <v>2.88</v>
       </c>
-      <c r="H2" t="s">
-        <v>36</v>
+      <c r="H2" t="n">
+        <v>-1034586</v>
       </c>
       <c r="I2" t="n">
         <v>-1.47</v>
       </c>
-      <c r="J2" t="s">
-        <v>37</v>
+      <c r="J2" t="n">
+        <v>-868227</v>
       </c>
       <c r="K2" t="n">
         <v>-5.34</v>
       </c>
-      <c r="L2" t="s">
-        <v>38</v>
+      <c r="L2" t="n">
+        <v>-854392</v>
       </c>
       <c r="M2" t="n">
         <v>-4.03</v>
       </c>
-      <c r="N2" t="s">
-        <v>39</v>
+      <c r="N2" t="n">
+        <v>-214124</v>
       </c>
       <c r="O2" t="n">
         <v>-1.08</v>
       </c>
-      <c r="P2" t="s">
-        <v>40</v>
+      <c r="P2" t="n">
+        <v>1186536</v>
       </c>
       <c r="Q2" t="n">
         <v>1.53</v>
       </c>
-      <c r="R2" t="s">
-        <v>41</v>
+      <c r="R2" t="n">
+        <v>4758940</v>
       </c>
       <c r="S2" t="n">
         <v>30.98</v>
       </c>
-      <c r="T2" t="s">
-        <v>42</v>
+      <c r="T2" t="n">
+        <v>-1975459</v>
       </c>
       <c r="U2" t="n">
         <v>-11.7</v>
       </c>
-      <c r="V2" t="s">
-        <v>43</v>
+      <c r="V2" t="n">
+        <v>-676921</v>
       </c>
       <c r="W2" t="n">
         <v>-4.01</v>
       </c>
-      <c r="X2" t="s">
-        <v>44</v>
+      <c r="X2" t="n">
+        <v>-1216565</v>
       </c>
       <c r="Y2" t="n">
         <v>-1.84</v>
       </c>
-      <c r="Z2" t="s">
-        <v>45</v>
+      <c r="Z2" t="n">
+        <v>-7003495</v>
       </c>
       <c r="AA2" t="n">
         <v>-53.71</v>
       </c>
-      <c r="AB2" t="s">
-        <v>46</v>
+      <c r="AB2" t="n">
+        <v>-1016370</v>
       </c>
       <c r="AC2" t="n">
         <v>-6.34</v>
       </c>
-      <c r="AD2" t="s">
-        <v>47</v>
+      <c r="AD2" t="n">
+        <v>27393</v>
       </c>
       <c r="AE2" t="n">
         <v>0.18</v>
       </c>
-      <c r="AF2" t="s">
-        <v>48</v>
+      <c r="AF2" t="n">
+        <v>-7989160</v>
       </c>
       <c r="AG2" t="n">
         <v>-13.11</v>
@@ -2074,100 +772,100 @@
     </row>
     <row r="3" spans="1:33">
       <c r="A3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
+        <v>33</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-491001</v>
       </c>
       <c r="C3" t="n">
         <v>-3.52</v>
       </c>
-      <c r="D3" t="s">
-        <v>51</v>
+      <c r="D3" t="n">
+        <v>234770</v>
       </c>
       <c r="E3" t="n">
         <v>1.29</v>
       </c>
-      <c r="F3" t="s">
-        <v>52</v>
+      <c r="F3" t="n">
+        <v>-249245</v>
       </c>
       <c r="G3" t="n">
         <v>-1.42</v>
       </c>
-      <c r="H3" t="s">
-        <v>53</v>
+      <c r="H3" t="n">
+        <v>-259150</v>
       </c>
       <c r="I3" t="n">
         <v>-0.37</v>
       </c>
-      <c r="J3" t="s">
-        <v>54</v>
+      <c r="J3" t="n">
+        <v>-523400</v>
       </c>
       <c r="K3" t="n">
         <v>-3.22</v>
       </c>
-      <c r="L3" t="s">
-        <v>55</v>
+      <c r="L3" t="n">
+        <v>586919</v>
       </c>
       <c r="M3" t="n">
         <v>2.77</v>
       </c>
-      <c r="N3" t="s">
-        <v>56</v>
+      <c r="N3" t="n">
+        <v>20354</v>
       </c>
       <c r="O3" t="n">
         <v>0.1</v>
       </c>
-      <c r="P3" t="s">
-        <v>57</v>
+      <c r="P3" t="n">
+        <v>1209572</v>
       </c>
       <c r="Q3" t="n">
         <v>1.56</v>
       </c>
-      <c r="R3" t="s">
-        <v>58</v>
+      <c r="R3" t="n">
+        <v>79844</v>
       </c>
       <c r="S3" t="n">
         <v>0.52</v>
       </c>
-      <c r="T3" t="s">
-        <v>59</v>
+      <c r="T3" t="n">
+        <v>953276</v>
       </c>
       <c r="U3" t="n">
         <v>5.64</v>
       </c>
-      <c r="V3" t="s">
-        <v>60</v>
+      <c r="V3" t="n">
+        <v>-1138894</v>
       </c>
       <c r="W3" t="n">
         <v>-6.75</v>
       </c>
-      <c r="X3" t="s">
-        <v>61</v>
+      <c r="X3" t="n">
+        <v>-66725</v>
       </c>
       <c r="Y3" t="n">
         <v>-0.1</v>
       </c>
-      <c r="Z3" t="s">
-        <v>62</v>
+      <c r="Z3" t="n">
+        <v>-24603</v>
       </c>
       <c r="AA3" t="n">
         <v>-0.19</v>
       </c>
-      <c r="AB3" t="s">
-        <v>63</v>
+      <c r="AB3" t="n">
+        <v>-772378</v>
       </c>
       <c r="AC3" t="n">
         <v>-4.82</v>
       </c>
-      <c r="AD3" t="s">
-        <v>64</v>
+      <c r="AD3" t="n">
+        <v>-185201</v>
       </c>
       <c r="AE3" t="n">
         <v>-1.23</v>
       </c>
-      <c r="AF3" t="s">
-        <v>65</v>
+      <c r="AF3" t="n">
+        <v>-526644</v>
       </c>
       <c r="AG3" t="n">
         <v>-0.86</v>
@@ -2175,100 +873,100 @@
     </row>
     <row r="4" spans="1:33">
       <c r="A4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" t="s">
-        <v>67</v>
+        <v>34</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1140953</v>
       </c>
       <c r="C4" t="n">
         <v>8.19</v>
       </c>
-      <c r="D4" t="s">
-        <v>68</v>
+      <c r="D4" t="n">
+        <v>676200</v>
       </c>
       <c r="E4" t="n">
         <v>3.72</v>
       </c>
-      <c r="F4" t="s">
-        <v>69</v>
+      <c r="F4" t="n">
+        <v>335213</v>
       </c>
       <c r="G4" t="n">
         <v>1.9</v>
       </c>
-      <c r="H4" t="s">
-        <v>70</v>
+      <c r="H4" t="n">
+        <v>2324762</v>
       </c>
       <c r="I4" t="n">
         <v>3.31</v>
       </c>
-      <c r="J4" t="s">
-        <v>71</v>
+      <c r="J4" t="n">
+        <v>242432</v>
       </c>
       <c r="K4" t="n">
         <v>1.49</v>
       </c>
-      <c r="L4" t="s">
-        <v>72</v>
+      <c r="L4" t="n">
+        <v>728197</v>
       </c>
       <c r="M4" t="n">
         <v>3.44</v>
       </c>
-      <c r="N4" t="s">
-        <v>73</v>
+      <c r="N4" t="n">
+        <v>306677</v>
       </c>
       <c r="O4" t="n">
         <v>1.55</v>
       </c>
-      <c r="P4" t="s">
-        <v>74</v>
+      <c r="P4" t="n">
+        <v>1579088</v>
       </c>
       <c r="Q4" t="n">
         <v>2.03</v>
       </c>
-      <c r="R4" t="s">
-        <v>75</v>
+      <c r="R4" t="n">
+        <v>179735</v>
       </c>
       <c r="S4" t="n">
         <v>1.17</v>
       </c>
-      <c r="T4" t="s">
-        <v>76</v>
+      <c r="T4" t="n">
+        <v>700281</v>
       </c>
       <c r="U4" t="n">
         <v>4.15</v>
       </c>
-      <c r="V4" t="s">
-        <v>77</v>
+      <c r="V4" t="n">
+        <v>285349</v>
       </c>
       <c r="W4" t="n">
         <v>1.69</v>
       </c>
-      <c r="X4" t="s">
-        <v>78</v>
+      <c r="X4" t="n">
+        <v>1502671</v>
       </c>
       <c r="Y4" t="n">
         <v>2.27</v>
       </c>
-      <c r="Z4" t="s">
-        <v>79</v>
+      <c r="Z4" t="n">
+        <v>375195</v>
       </c>
       <c r="AA4" t="n">
         <v>2.88</v>
       </c>
-      <c r="AB4" t="s">
-        <v>80</v>
+      <c r="AB4" t="n">
+        <v>531606</v>
       </c>
       <c r="AC4" t="n">
         <v>3.32</v>
       </c>
-      <c r="AD4" t="s">
-        <v>81</v>
+      <c r="AD4" t="n">
+        <v>92736</v>
       </c>
       <c r="AE4" t="n">
         <v>0.62</v>
       </c>
-      <c r="AF4" t="s">
-        <v>82</v>
+      <c r="AF4" t="n">
+        <v>1058684</v>
       </c>
       <c r="AG4" t="n">
         <v>1.74</v>
@@ -2276,100 +974,100 @@
     </row>
     <row r="5" spans="1:33">
       <c r="A5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" t="s">
-        <v>84</v>
+        <v>35</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-125038</v>
       </c>
       <c r="C5" t="n">
         <v>-0.9</v>
       </c>
-      <c r="D5" t="s">
-        <v>85</v>
+      <c r="D5" t="n">
+        <v>-531559</v>
       </c>
       <c r="E5" t="n">
         <v>-2.92</v>
       </c>
-      <c r="F5" t="s">
-        <v>86</v>
+      <c r="F5" t="n">
+        <v>102341</v>
       </c>
       <c r="G5" t="n">
         <v>0.58</v>
       </c>
-      <c r="H5" t="s">
-        <v>87</v>
+      <c r="H5" t="n">
+        <v>2334447</v>
       </c>
       <c r="I5" t="n">
         <v>3.33</v>
       </c>
-      <c r="J5" t="s">
-        <v>88</v>
+      <c r="J5" t="n">
+        <v>-362929</v>
       </c>
       <c r="K5" t="n">
         <v>-2.23</v>
       </c>
-      <c r="L5" t="s">
-        <v>89</v>
+      <c r="L5" t="n">
+        <v>-2780775</v>
       </c>
       <c r="M5" t="n">
         <v>-13.12</v>
       </c>
-      <c r="N5" t="s">
-        <v>90</v>
+      <c r="N5" t="n">
+        <v>1379410</v>
       </c>
       <c r="O5" t="n">
         <v>6.97</v>
       </c>
-      <c r="P5" t="s">
-        <v>91</v>
+      <c r="P5" t="n">
+        <v>4827293</v>
       </c>
       <c r="Q5" t="n">
         <v>6.21</v>
       </c>
-      <c r="R5" t="s">
-        <v>92</v>
+      <c r="R5" t="n">
+        <v>3927296</v>
       </c>
       <c r="S5" t="n">
         <v>25.56</v>
       </c>
-      <c r="T5" t="s">
-        <v>93</v>
+      <c r="T5" t="n">
+        <v>-3256100</v>
       </c>
       <c r="U5" t="n">
         <v>-19.28</v>
       </c>
-      <c r="V5" t="s">
-        <v>94</v>
+      <c r="V5" t="n">
+        <v>1657709</v>
       </c>
       <c r="W5" t="n">
         <v>9.83</v>
       </c>
-      <c r="X5" t="s">
-        <v>95</v>
+      <c r="X5" t="n">
+        <v>-3860529</v>
       </c>
       <c r="Y5" t="n">
         <v>-5.82</v>
       </c>
-      <c r="Z5" t="s">
-        <v>96</v>
+      <c r="Z5" t="n">
+        <v>-8936360</v>
       </c>
       <c r="AA5" t="n">
         <v>-68.54000000000001</v>
       </c>
-      <c r="AB5" t="s">
-        <v>97</v>
+      <c r="AB5" t="n">
+        <v>-2589855</v>
       </c>
       <c r="AC5" t="n">
         <v>-16.16</v>
       </c>
-      <c r="AD5" t="s">
-        <v>98</v>
+      <c r="AD5" t="n">
+        <v>-2522247</v>
       </c>
       <c r="AE5" t="n">
         <v>-16.77</v>
       </c>
-      <c r="AF5" t="s">
-        <v>99</v>
+      <c r="AF5" t="n">
+        <v>-14688396</v>
       </c>
       <c r="AG5" t="n">
         <v>-24.1</v>
@@ -2377,100 +1075,100 @@
     </row>
     <row r="6" spans="1:33">
       <c r="A6" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" t="s">
-        <v>101</v>
+        <v>36</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1220801</v>
       </c>
       <c r="C6" t="n">
         <v>8.76</v>
       </c>
-      <c r="D6" t="s">
-        <v>102</v>
+      <c r="D6" t="n">
+        <v>914604</v>
       </c>
       <c r="E6" t="n">
         <v>5.03</v>
       </c>
-      <c r="F6" t="s">
-        <v>103</v>
+      <c r="F6" t="n">
+        <v>-418413</v>
       </c>
       <c r="G6" t="n">
         <v>-2.38</v>
       </c>
-      <c r="H6" t="s">
-        <v>104</v>
+      <c r="H6" t="n">
+        <v>2532355</v>
       </c>
       <c r="I6" t="n">
         <v>3.61</v>
       </c>
-      <c r="J6" t="s">
-        <v>105</v>
+      <c r="J6" t="n">
+        <v>719397</v>
       </c>
       <c r="K6" t="n">
         <v>4.43</v>
       </c>
-      <c r="L6" t="s">
-        <v>106</v>
+      <c r="L6" t="n">
+        <v>-994881</v>
       </c>
       <c r="M6" t="n">
         <v>-4.69</v>
       </c>
-      <c r="N6" t="s">
-        <v>107</v>
+      <c r="N6" t="n">
+        <v>904955</v>
       </c>
       <c r="O6" t="n">
         <v>4.57</v>
       </c>
-      <c r="P6" t="s">
-        <v>108</v>
+      <c r="P6" t="n">
+        <v>2980569</v>
       </c>
       <c r="Q6" t="n">
         <v>3.84</v>
       </c>
-      <c r="R6" t="s">
-        <v>109</v>
+      <c r="R6" t="n">
+        <v>-862180</v>
       </c>
       <c r="S6" t="n">
         <v>-5.61</v>
       </c>
-      <c r="T6" t="s">
-        <v>110</v>
+      <c r="T6" t="n">
+        <v>-494006</v>
       </c>
       <c r="U6" t="n">
         <v>-2.92</v>
       </c>
-      <c r="V6" t="s">
-        <v>111</v>
+      <c r="V6" t="n">
+        <v>1217257</v>
       </c>
       <c r="W6" t="n">
         <v>7.22</v>
       </c>
-      <c r="X6" t="s">
-        <v>112</v>
+      <c r="X6" t="n">
+        <v>-1184681</v>
       </c>
       <c r="Y6" t="n">
         <v>-1.79</v>
       </c>
-      <c r="Z6" t="s">
-        <v>113</v>
+      <c r="Z6" t="n">
+        <v>-707947</v>
       </c>
       <c r="AA6" t="n">
         <v>-5.43</v>
       </c>
-      <c r="AB6" t="s">
-        <v>114</v>
+      <c r="AB6" t="n">
+        <v>-1076459</v>
       </c>
       <c r="AC6" t="n">
         <v>-6.72</v>
       </c>
-      <c r="AD6" t="s">
-        <v>115</v>
+      <c r="AD6" t="n">
+        <v>-1709513</v>
       </c>
       <c r="AE6" t="n">
         <v>-11.37</v>
       </c>
-      <c r="AF6" t="s">
-        <v>116</v>
+      <c r="AF6" t="n">
+        <v>-4016914</v>
       </c>
       <c r="AG6" t="n">
         <v>-6.59</v>
@@ -2478,105 +1176,105 @@
     </row>
     <row r="7" spans="1:33">
       <c r="A7" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B7" t="s">
-        <v>118</v>
+        <v>37</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.4</v>
       </c>
       <c r="C7" t="s"/>
-      <c r="D7" t="s">
-        <v>119</v>
+      <c r="D7" t="n">
+        <v>0.83</v>
       </c>
       <c r="E7" t="s"/>
-      <c r="F7" t="s">
-        <v>120</v>
+      <c r="F7" t="n">
+        <v>0.34</v>
       </c>
       <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>121</v>
+      <c r="H7" t="n">
+        <v>2.21</v>
       </c>
       <c r="I7" t="s"/>
-      <c r="J7" t="s">
-        <v>122</v>
+      <c r="J7" t="n">
+        <v>0.47</v>
       </c>
       <c r="K7" t="s"/>
-      <c r="L7" t="s">
-        <v>123</v>
+      <c r="L7" t="n">
+        <v>1.21</v>
       </c>
       <c r="M7" t="s"/>
-      <c r="N7" t="s">
-        <v>124</v>
+      <c r="N7" t="n">
+        <v>0.64</v>
       </c>
       <c r="O7" t="s"/>
-      <c r="P7" t="s">
-        <v>125</v>
+      <c r="P7" t="n">
+        <v>2.98</v>
       </c>
       <c r="Q7" t="s"/>
-      <c r="R7" t="s">
-        <v>122</v>
+      <c r="R7" t="n">
+        <v>0.47</v>
       </c>
       <c r="S7" t="s"/>
-      <c r="T7" t="s">
-        <v>126</v>
+      <c r="T7" t="n">
+        <v>0.9399999999999999</v>
       </c>
       <c r="U7" t="s"/>
-      <c r="V7" t="s">
-        <v>127</v>
+      <c r="V7" t="n">
+        <v>0.02</v>
       </c>
       <c r="W7" t="s"/>
-      <c r="X7" t="s">
-        <v>128</v>
+      <c r="X7" t="n">
+        <v>1.55</v>
       </c>
       <c r="Y7" t="s"/>
-      <c r="Z7" t="s">
-        <v>129</v>
+      <c r="Z7" t="n">
+        <v>0.06</v>
       </c>
       <c r="AA7" t="s"/>
-      <c r="AB7" t="s">
-        <v>130</v>
+      <c r="AB7" t="n">
+        <v>0.38</v>
       </c>
       <c r="AC7" t="s"/>
-      <c r="AD7" t="s">
-        <v>131</v>
+      <c r="AD7" t="n">
+        <v>0.3</v>
       </c>
       <c r="AE7" t="s"/>
-      <c r="AF7" t="s">
-        <v>132</v>
+      <c r="AF7" t="n">
+        <v>1.26</v>
       </c>
       <c r="AG7" t="s"/>
     </row>
     <row r="8" spans="1:33">
       <c r="A8" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B8" t="s">
-        <v>134</v>
+        <v>38</v>
+      </c>
+      <c r="B8" t="n">
+        <v>37</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
-      <c r="D8" t="s">
-        <v>135</v>
+      <c r="D8" t="n">
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
-      <c r="F8" t="s">
-        <v>135</v>
+      <c r="F8" t="n">
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="s"/>
       <c r="I8" t="s"/>
-      <c r="J8" t="s">
-        <v>135</v>
+      <c r="J8" t="n">
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
-      <c r="L8" t="s">
-        <v>135</v>
+      <c r="L8" t="n">
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -2587,8 +1285,8 @@
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
-      <c r="T8" t="s">
-        <v>136</v>
+      <c r="T8" t="n">
+        <v>441</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -2597,26 +1295,26 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s"/>
-      <c r="Z8" t="s">
-        <v>137</v>
+      <c r="Z8" t="n">
+        <v>201</v>
       </c>
       <c r="AA8" t="n">
         <v>0</v>
       </c>
-      <c r="AB8" t="s">
-        <v>138</v>
+      <c r="AB8" t="n">
+        <v>449</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
       </c>
-      <c r="AD8" t="s">
-        <v>139</v>
+      <c r="AD8" t="n">
+        <v>30</v>
       </c>
       <c r="AE8" t="n">
         <v>0</v>
       </c>
-      <c r="AF8" t="s">
-        <v>140</v>
+      <c r="AF8" t="n">
+        <v>1041</v>
       </c>
       <c r="AG8" t="n">
         <v>0</v>
@@ -2624,100 +1322,100 @@
     </row>
     <row r="9" spans="1:33">
       <c r="A9" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B9" t="s">
-        <v>142</v>
+        <v>39</v>
+      </c>
+      <c r="B9" t="n">
+        <v>218286</v>
       </c>
       <c r="C9" t="n">
         <v>1.57</v>
       </c>
-      <c r="D9" t="s">
-        <v>143</v>
+      <c r="D9" t="n">
+        <v>259500</v>
       </c>
       <c r="E9" t="n">
         <v>1.43</v>
       </c>
-      <c r="F9" t="s">
-        <v>144</v>
+      <c r="F9" t="n">
+        <v>333938</v>
       </c>
       <c r="G9" t="n">
         <v>1.9</v>
       </c>
-      <c r="H9" t="s">
-        <v>145</v>
+      <c r="H9" t="n">
+        <v>1825950</v>
       </c>
       <c r="I9" t="n">
         <v>2.6</v>
       </c>
-      <c r="J9" t="s">
-        <v>146</v>
+      <c r="J9" t="n">
+        <v>330848</v>
       </c>
       <c r="K9" t="n">
         <v>2.04</v>
       </c>
-      <c r="L9" t="s">
-        <v>147</v>
+      <c r="L9" t="n">
+        <v>686386</v>
       </c>
       <c r="M9" t="n">
         <v>3.24</v>
       </c>
-      <c r="N9" t="s">
-        <v>148</v>
+      <c r="N9" t="n">
+        <v>357809</v>
       </c>
       <c r="O9" t="n">
         <v>1.81</v>
       </c>
-      <c r="P9" t="s">
-        <v>149</v>
+      <c r="P9" t="n">
+        <v>2813741</v>
       </c>
       <c r="Q9" t="n">
         <v>3.62</v>
       </c>
-      <c r="R9" t="s">
-        <v>150</v>
+      <c r="R9" t="n">
+        <v>302412</v>
       </c>
       <c r="S9" t="n">
         <v>1.97</v>
       </c>
-      <c r="T9" t="s">
-        <v>151</v>
+      <c r="T9" t="n">
+        <v>247545</v>
       </c>
       <c r="U9" t="n">
         <v>1.47</v>
       </c>
-      <c r="V9" t="s">
-        <v>152</v>
+      <c r="V9" t="n">
+        <v>132576</v>
       </c>
       <c r="W9" t="n">
         <v>0.79</v>
       </c>
-      <c r="X9" t="s">
-        <v>153</v>
+      <c r="X9" t="n">
+        <v>1879675</v>
       </c>
       <c r="Y9" t="n">
         <v>2.84</v>
       </c>
-      <c r="Z9" t="s">
-        <v>154</v>
+      <c r="Z9" t="n">
+        <v>88091</v>
       </c>
       <c r="AA9" t="n">
         <v>0.68</v>
       </c>
-      <c r="AB9" t="s">
-        <v>155</v>
+      <c r="AB9" t="n">
+        <v>326198</v>
       </c>
       <c r="AC9" t="n">
         <v>2.04</v>
       </c>
-      <c r="AD9" t="s">
-        <v>156</v>
+      <c r="AD9" t="n">
+        <v>208343</v>
       </c>
       <c r="AE9" t="n">
         <v>1.39</v>
       </c>
-      <c r="AF9" t="s">
-        <v>157</v>
+      <c r="AF9" t="n">
+        <v>1793292</v>
       </c>
       <c r="AG9" t="n">
         <v>2.94</v>
@@ -2725,100 +1423,100 @@
     </row>
     <row r="10" spans="1:33">
       <c r="A10" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B10" t="s">
-        <v>159</v>
+        <v>40</v>
+      </c>
+      <c r="B10" t="n">
+        <v>82876</v>
       </c>
       <c r="C10" t="n">
         <v>0.59</v>
       </c>
-      <c r="D10" t="s">
-        <v>160</v>
+      <c r="D10" t="n">
+        <v>-46237</v>
       </c>
       <c r="E10" t="n">
         <v>-0.25</v>
       </c>
-      <c r="F10" t="s">
-        <v>161</v>
+      <c r="F10" t="n">
+        <v>11523</v>
       </c>
       <c r="G10" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="H10" t="s">
-        <v>162</v>
+      <c r="H10" t="n">
+        <v>573480</v>
       </c>
       <c r="I10" t="n">
         <v>0.82</v>
       </c>
-      <c r="J10" t="s">
-        <v>163</v>
+      <c r="J10" t="n">
+        <v>-340082</v>
       </c>
       <c r="K10" t="n">
         <v>-2.09</v>
       </c>
-      <c r="L10" t="s">
-        <v>164</v>
+      <c r="L10" t="n">
+        <v>-935581</v>
       </c>
       <c r="M10" t="n">
         <v>-4.41</v>
       </c>
-      <c r="N10" t="s">
-        <v>165</v>
+      <c r="N10" t="n">
+        <v>683983</v>
       </c>
       <c r="O10" t="n">
         <v>3.46</v>
       </c>
-      <c r="P10" t="s">
-        <v>166</v>
+      <c r="P10" t="n">
+        <v>527962</v>
       </c>
       <c r="Q10" t="n">
         <v>0.68</v>
       </c>
-      <c r="R10" t="s">
-        <v>139</v>
+      <c r="R10" t="n">
+        <v>30</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
-      <c r="T10" t="s">
-        <v>167</v>
+      <c r="T10" t="n">
+        <v>-17</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
-      <c r="V10" t="s">
-        <v>135</v>
+      <c r="V10" t="n">
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
-      <c r="X10" t="s">
-        <v>168</v>
+      <c r="X10" t="n">
+        <v>-285305</v>
       </c>
       <c r="Y10" t="n">
         <v>-0.43</v>
       </c>
-      <c r="Z10" t="s">
-        <v>135</v>
+      <c r="Z10" t="n">
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
         <v>0</v>
       </c>
-      <c r="AB10" t="s">
-        <v>135</v>
+      <c r="AB10" t="n">
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
       </c>
-      <c r="AD10" t="s">
-        <v>135</v>
+      <c r="AD10" t="n">
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
         <v>0</v>
       </c>
-      <c r="AF10" t="s">
-        <v>169</v>
+      <c r="AF10" t="n">
+        <v>-140079</v>
       </c>
       <c r="AG10" t="n">
         <v>-0.23</v>
@@ -2826,100 +1524,100 @@
     </row>
     <row r="11" spans="1:33">
       <c r="A11" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B11" t="s">
-        <v>171</v>
+        <v>41</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1025067</v>
       </c>
       <c r="C11" t="n">
         <v>7.36</v>
       </c>
-      <c r="D11" t="s">
-        <v>172</v>
+      <c r="D11" t="n">
+        <v>800492</v>
       </c>
       <c r="E11" t="n">
         <v>4.4</v>
       </c>
-      <c r="F11" t="s">
-        <v>173</v>
+      <c r="F11" t="n">
+        <v>611715</v>
       </c>
       <c r="G11" t="n">
         <v>3.47</v>
       </c>
-      <c r="H11" t="s">
-        <v>174</v>
+      <c r="H11" t="n">
+        <v>3208725</v>
       </c>
       <c r="I11" t="n">
         <v>4.57</v>
       </c>
-      <c r="J11" t="s">
-        <v>175</v>
+      <c r="J11" t="n">
+        <v>1042631</v>
       </c>
       <c r="K11" t="n">
         <v>6.41</v>
       </c>
-      <c r="L11" t="s">
-        <v>176</v>
+      <c r="L11" t="n">
+        <v>1476399</v>
       </c>
       <c r="M11" t="n">
         <v>6.97</v>
       </c>
-      <c r="N11" t="s">
-        <v>177</v>
+      <c r="N11" t="n">
+        <v>1089616</v>
       </c>
       <c r="O11" t="n">
         <v>5.51</v>
       </c>
-      <c r="P11" t="s">
-        <v>178</v>
+      <c r="P11" t="n">
+        <v>4350273</v>
       </c>
       <c r="Q11" t="n">
         <v>5.6</v>
       </c>
-      <c r="R11" t="s">
-        <v>179</v>
+      <c r="R11" t="n">
+        <v>960033</v>
       </c>
       <c r="S11" t="n">
         <v>6.25</v>
       </c>
-      <c r="T11" t="s">
-        <v>180</v>
+      <c r="T11" t="n">
+        <v>1079034</v>
       </c>
       <c r="U11" t="n">
         <v>6.39</v>
       </c>
-      <c r="V11" t="s">
-        <v>181</v>
+      <c r="V11" t="n">
+        <v>378902</v>
       </c>
       <c r="W11" t="n">
         <v>2.25</v>
       </c>
-      <c r="X11" t="s">
-        <v>182</v>
+      <c r="X11" t="n">
+        <v>2986137</v>
       </c>
       <c r="Y11" t="n">
         <v>4.5</v>
       </c>
-      <c r="Z11" t="s">
-        <v>183</v>
+      <c r="Z11" t="n">
+        <v>-55695</v>
       </c>
       <c r="AA11" t="n">
         <v>-0.43</v>
       </c>
-      <c r="AB11" t="s">
-        <v>184</v>
+      <c r="AB11" t="n">
+        <v>333391</v>
       </c>
       <c r="AC11" t="n">
         <v>2.08</v>
       </c>
-      <c r="AD11" t="s">
-        <v>185</v>
+      <c r="AD11" t="n">
+        <v>374679</v>
       </c>
       <c r="AE11" t="n">
         <v>2.49</v>
       </c>
-      <c r="AF11" t="s">
-        <v>186</v>
+      <c r="AF11" t="n">
+        <v>1349719</v>
       </c>
       <c r="AG11" t="n">
         <v>2.21</v>
@@ -2927,7 +1625,7 @@
     </row>
     <row r="12" spans="1:33">
       <c r="A12" s="1" t="s">
-        <v>187</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s"/>
       <c r="C12" t="s"/>
@@ -2945,50 +1643,50 @@
       <c r="O12" t="s"/>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
-      <c r="R12" t="s">
-        <v>188</v>
+      <c r="R12" t="n">
+        <v>45564</v>
       </c>
       <c r="S12" t="n">
         <v>0.3</v>
       </c>
-      <c r="T12" t="s">
-        <v>189</v>
+      <c r="T12" t="n">
+        <v>-790428</v>
       </c>
       <c r="U12" t="n">
         <v>-4.68</v>
       </c>
-      <c r="V12" t="s">
-        <v>190</v>
+      <c r="V12" t="n">
+        <v>1113981</v>
       </c>
       <c r="W12" t="n">
         <v>6.61</v>
       </c>
-      <c r="X12" t="s">
-        <v>191</v>
+      <c r="X12" t="n">
+        <v>-722900</v>
       </c>
       <c r="Y12" t="n">
         <v>-1.09</v>
       </c>
-      <c r="Z12" t="s">
-        <v>192</v>
+      <c r="Z12" t="n">
+        <v>-1224918</v>
       </c>
       <c r="AA12" t="n">
         <v>-9.390000000000001</v>
       </c>
-      <c r="AB12" t="s">
-        <v>193</v>
+      <c r="AB12" t="n">
+        <v>-497026</v>
       </c>
       <c r="AC12" t="n">
         <v>-3.1</v>
       </c>
-      <c r="AD12" t="s">
-        <v>194</v>
+      <c r="AD12" t="n">
+        <v>-840127</v>
       </c>
       <c r="AE12" t="n">
         <v>-5.59</v>
       </c>
-      <c r="AF12" t="s">
-        <v>195</v>
+      <c r="AF12" t="n">
+        <v>-2482376</v>
       </c>
       <c r="AG12" t="n">
         <v>-4.07</v>
@@ -2996,100 +1694,100 @@
     </row>
     <row r="13" spans="1:33">
       <c r="A13" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B13" t="s">
-        <v>135</v>
+        <v>43</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
-      <c r="D13" t="s">
-        <v>197</v>
+      <c r="D13" t="n">
+        <v>12</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
-      <c r="F13" t="s">
-        <v>198</v>
+      <c r="F13" t="n">
+        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
-      <c r="H13" t="s">
-        <v>199</v>
+      <c r="H13" t="n">
+        <v>32</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="s">
-        <v>200</v>
+      <c r="J13" t="n">
+        <v>358</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
-      <c r="L13" t="s">
-        <v>201</v>
+      <c r="L13" t="n">
+        <v>445</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
-      <c r="N13" t="s">
-        <v>202</v>
+      <c r="N13" t="n">
+        <v>-136</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
-      <c r="P13" t="s">
-        <v>203</v>
+      <c r="P13" t="n">
+        <v>586</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
-      <c r="R13" t="s">
-        <v>204</v>
+      <c r="R13" t="n">
+        <v>1263</v>
       </c>
       <c r="S13" t="n">
         <v>0.01</v>
       </c>
-      <c r="T13" t="s">
-        <v>135</v>
+      <c r="T13" t="n">
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
-      <c r="V13" t="s">
-        <v>205</v>
+      <c r="V13" t="n">
+        <v>-404</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
-      <c r="X13" t="s">
-        <v>206</v>
+      <c r="X13" t="n">
+        <v>92</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
       </c>
-      <c r="Z13" t="s">
-        <v>135</v>
+      <c r="Z13" t="n">
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
         <v>0</v>
       </c>
-      <c r="AB13" t="s">
-        <v>135</v>
+      <c r="AB13" t="n">
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
       </c>
-      <c r="AD13" t="s">
-        <v>135</v>
+      <c r="AD13" t="n">
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
         <v>0</v>
       </c>
-      <c r="AF13" t="s">
-        <v>135</v>
+      <c r="AF13" t="n">
+        <v>0</v>
       </c>
       <c r="AG13" t="n">
         <v>0</v>
@@ -3097,100 +1795,100 @@
     </row>
     <row r="14" spans="1:33">
       <c r="A14" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B14" t="s">
-        <v>208</v>
+        <v>44</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1371559</v>
       </c>
       <c r="C14" t="n">
         <v>9.84</v>
       </c>
-      <c r="D14" t="s">
-        <v>209</v>
+      <c r="D14" t="n">
+        <v>2934680</v>
       </c>
       <c r="E14" t="n">
         <v>16.14</v>
       </c>
-      <c r="F14" t="s">
-        <v>210</v>
+      <c r="F14" t="n">
+        <v>1361389</v>
       </c>
       <c r="G14" t="n">
         <v>7.73</v>
       </c>
-      <c r="H14" t="s">
-        <v>211</v>
+      <c r="H14" t="n">
+        <v>8451890</v>
       </c>
       <c r="I14" t="n">
         <v>12.04</v>
       </c>
-      <c r="J14" t="s">
-        <v>212</v>
+      <c r="J14" t="n">
+        <v>1683231</v>
       </c>
       <c r="K14" t="n">
         <v>10.35</v>
       </c>
-      <c r="L14" t="s">
-        <v>213</v>
+      <c r="L14" t="n">
+        <v>4195441</v>
       </c>
       <c r="M14" t="n">
         <v>19.79</v>
       </c>
-      <c r="N14" t="s">
-        <v>214</v>
+      <c r="N14" t="n">
+        <v>2360599</v>
       </c>
       <c r="O14" t="n">
         <v>11.93</v>
       </c>
-      <c r="P14" t="s">
-        <v>215</v>
+      <c r="P14" t="n">
+        <v>10905998</v>
       </c>
       <c r="Q14" t="n">
         <v>14.04</v>
       </c>
-      <c r="R14" t="s">
-        <v>216</v>
+      <c r="R14" t="n">
+        <v>1542288</v>
       </c>
       <c r="S14" t="n">
         <v>10.04</v>
       </c>
-      <c r="T14" t="s">
-        <v>217</v>
+      <c r="T14" t="n">
+        <v>3033963</v>
       </c>
       <c r="U14" t="n">
         <v>17.96</v>
       </c>
-      <c r="V14" t="s">
-        <v>218</v>
+      <c r="V14" t="n">
+        <v>-169697</v>
       </c>
       <c r="W14" t="n">
         <v>-1.01</v>
       </c>
-      <c r="X14" t="s">
-        <v>219</v>
+      <c r="X14" t="n">
+        <v>4934483</v>
       </c>
       <c r="Y14" t="n">
         <v>7.44</v>
       </c>
-      <c r="Z14" t="s">
-        <v>220</v>
+      <c r="Z14" t="n">
+        <v>194459</v>
       </c>
       <c r="AA14" t="n">
         <v>1.49</v>
       </c>
-      <c r="AB14" t="s">
-        <v>221</v>
+      <c r="AB14" t="n">
+        <v>1337358</v>
       </c>
       <c r="AC14" t="n">
         <v>8.34</v>
       </c>
-      <c r="AD14" t="s">
-        <v>222</v>
+      <c r="AD14" t="n">
+        <v>1170163</v>
       </c>
       <c r="AE14" t="n">
         <v>7.78</v>
       </c>
-      <c r="AF14" t="s">
-        <v>223</v>
+      <c r="AF14" t="n">
+        <v>4683297</v>
       </c>
       <c r="AG14" t="n">
         <v>7.68</v>
@@ -3198,100 +1896,100 @@
     </row>
     <row r="15" spans="1:33">
       <c r="A15" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B15" t="s">
-        <v>225</v>
+        <v>45</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1246521</v>
       </c>
       <c r="C15" t="n">
         <v>8.949999999999999</v>
       </c>
-      <c r="D15" t="s">
-        <v>226</v>
+      <c r="D15" t="n">
+        <v>2403121</v>
       </c>
       <c r="E15" t="n">
         <v>13.22</v>
       </c>
-      <c r="F15" t="s">
-        <v>227</v>
+      <c r="F15" t="n">
+        <v>1463730</v>
       </c>
       <c r="G15" t="n">
         <v>8.31</v>
       </c>
-      <c r="H15" t="s">
-        <v>228</v>
+      <c r="H15" t="n">
+        <v>10786337</v>
       </c>
       <c r="I15" t="n">
         <v>15.37</v>
       </c>
-      <c r="J15" t="s">
-        <v>229</v>
+      <c r="J15" t="n">
+        <v>1320302</v>
       </c>
       <c r="K15" t="n">
         <v>8.119999999999999</v>
       </c>
-      <c r="L15" t="s">
-        <v>230</v>
+      <c r="L15" t="n">
+        <v>1414666</v>
       </c>
       <c r="M15" t="n">
         <v>6.67</v>
       </c>
-      <c r="N15" t="s">
-        <v>231</v>
+      <c r="N15" t="n">
+        <v>3740009</v>
       </c>
       <c r="O15" t="n">
         <v>18.9</v>
       </c>
-      <c r="P15" t="s">
-        <v>232</v>
+      <c r="P15" t="n">
+        <v>15733291</v>
       </c>
       <c r="Q15" t="n">
         <v>20.25</v>
       </c>
-      <c r="R15" t="s">
-        <v>233</v>
+      <c r="R15" t="n">
+        <v>5469584</v>
       </c>
       <c r="S15" t="n">
         <v>35.6</v>
       </c>
-      <c r="T15" t="s">
-        <v>234</v>
+      <c r="T15" t="n">
+        <v>-222137</v>
       </c>
       <c r="U15" t="n">
         <v>-1.32</v>
       </c>
-      <c r="V15" t="s">
-        <v>235</v>
+      <c r="V15" t="n">
+        <v>1488012</v>
       </c>
       <c r="W15" t="n">
         <v>8.83</v>
       </c>
-      <c r="X15" t="s">
-        <v>236</v>
+      <c r="X15" t="n">
+        <v>1073954</v>
       </c>
       <c r="Y15" t="n">
         <v>1.62</v>
       </c>
-      <c r="Z15" t="s">
-        <v>237</v>
+      <c r="Z15" t="n">
+        <v>-8741901</v>
       </c>
       <c r="AA15" t="n">
         <v>-67.04000000000001</v>
       </c>
-      <c r="AB15" t="s">
-        <v>238</v>
+      <c r="AB15" t="n">
+        <v>-1252497</v>
       </c>
       <c r="AC15" t="n">
         <v>-7.81</v>
       </c>
-      <c r="AD15" t="s">
-        <v>239</v>
+      <c r="AD15" t="n">
+        <v>-1352084</v>
       </c>
       <c r="AE15" t="n">
         <v>-8.99</v>
       </c>
-      <c r="AF15" t="s">
-        <v>240</v>
+      <c r="AF15" t="n">
+        <v>-10005099</v>
       </c>
       <c r="AG15" t="n">
         <v>-16.42</v>
@@ -3299,100 +1997,100 @@
     </row>
     <row r="16" spans="1:33">
       <c r="A16" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B16" t="s">
-        <v>242</v>
+        <v>46</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1213452</v>
       </c>
       <c r="C16" t="n">
         <v>8.710000000000001</v>
       </c>
-      <c r="D16" t="s">
-        <v>243</v>
+      <c r="D16" t="n">
+        <v>2500283</v>
       </c>
       <c r="E16" t="n">
         <v>13.75</v>
       </c>
-      <c r="F16" t="s">
-        <v>244</v>
+      <c r="F16" t="n">
+        <v>1042187</v>
       </c>
       <c r="G16" t="n">
         <v>5.92</v>
       </c>
-      <c r="H16" t="s">
-        <v>245</v>
+      <c r="H16" t="n">
+        <v>6805830</v>
       </c>
       <c r="I16" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="J16" t="s">
-        <v>246</v>
+      <c r="J16" t="n">
+        <v>1439813</v>
       </c>
       <c r="K16" t="n">
         <v>8.859999999999999</v>
       </c>
-      <c r="L16" t="s">
-        <v>247</v>
+      <c r="L16" t="n">
+        <v>3734816</v>
       </c>
       <c r="M16" t="n">
         <v>17.62</v>
       </c>
-      <c r="N16" t="s">
-        <v>248</v>
+      <c r="N16" t="n">
+        <v>2024069</v>
       </c>
       <c r="O16" t="n">
         <v>10.23</v>
       </c>
-      <c r="P16" t="s">
-        <v>249</v>
+      <c r="P16" t="n">
+        <v>9361635</v>
       </c>
       <c r="Q16" t="n">
         <v>12.05</v>
       </c>
-      <c r="R16" t="s">
-        <v>250</v>
+      <c r="R16" t="n">
+        <v>1468473</v>
       </c>
       <c r="S16" t="n">
         <v>9.56</v>
       </c>
-      <c r="T16" t="s">
-        <v>251</v>
+      <c r="T16" t="n">
+        <v>2888526</v>
       </c>
       <c r="U16" t="n">
         <v>17.1</v>
       </c>
-      <c r="V16" t="s">
-        <v>252</v>
+      <c r="V16" t="n">
+        <v>64042</v>
       </c>
       <c r="W16" t="n">
         <v>0.38</v>
       </c>
-      <c r="X16" t="s">
-        <v>253</v>
+      <c r="X16" t="n">
+        <v>4860241</v>
       </c>
       <c r="Y16" t="n">
         <v>7.33</v>
       </c>
-      <c r="Z16" t="s">
-        <v>254</v>
+      <c r="Z16" t="n">
+        <v>199130</v>
       </c>
       <c r="AA16" t="n">
         <v>1.53</v>
       </c>
-      <c r="AB16" t="s">
-        <v>255</v>
+      <c r="AB16" t="n">
+        <v>1205901</v>
       </c>
       <c r="AC16" t="n">
         <v>7.52</v>
       </c>
-      <c r="AD16" t="s">
-        <v>256</v>
+      <c r="AD16" t="n">
+        <v>936584</v>
       </c>
       <c r="AE16" t="n">
         <v>6.23</v>
       </c>
-      <c r="AF16" t="s">
-        <v>257</v>
+      <c r="AF16" t="n">
+        <v>3945769</v>
       </c>
       <c r="AG16" t="n">
         <v>6.47</v>
@@ -3400,100 +2098,100 @@
     </row>
     <row r="17" spans="1:33">
       <c r="A17" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B17" t="s">
-        <v>259</v>
+        <v>47</v>
+      </c>
+      <c r="B17" t="n">
+        <v>718662</v>
       </c>
       <c r="C17" t="n">
         <v>5.16</v>
       </c>
-      <c r="D17" t="s">
-        <v>260</v>
+      <c r="D17" t="n">
+        <v>1693730</v>
       </c>
       <c r="E17" t="n">
         <v>9.32</v>
       </c>
-      <c r="F17" t="s">
-        <v>261</v>
+      <c r="F17" t="n">
+        <v>1267750</v>
       </c>
       <c r="G17" t="n">
         <v>7.2</v>
       </c>
-      <c r="H17" t="s">
-        <v>262</v>
+      <c r="H17" t="n">
+        <v>8373288</v>
       </c>
       <c r="I17" t="n">
         <v>11.93</v>
       </c>
-      <c r="J17" t="s">
-        <v>263</v>
+      <c r="J17" t="n">
+        <v>873472</v>
       </c>
       <c r="K17" t="n">
         <v>5.37</v>
       </c>
-      <c r="L17" t="s">
-        <v>264</v>
+      <c r="L17" t="n">
+        <v>1247525</v>
       </c>
       <c r="M17" t="n">
         <v>5.89</v>
       </c>
-      <c r="N17" t="s">
-        <v>265</v>
+      <c r="N17" t="n">
+        <v>3126996</v>
       </c>
       <c r="O17" t="n">
         <v>15.81</v>
       </c>
-      <c r="P17" t="s">
-        <v>266</v>
+      <c r="P17" t="n">
+        <v>13273390</v>
       </c>
       <c r="Q17" t="n">
         <v>17.09</v>
       </c>
-      <c r="R17" t="s">
-        <v>267</v>
+      <c r="R17" t="n">
+        <v>5633392</v>
       </c>
       <c r="S17" t="n">
         <v>36.67</v>
       </c>
-      <c r="T17" t="s">
-        <v>268</v>
+      <c r="T17" t="n">
+        <v>-212610</v>
       </c>
       <c r="U17" t="n">
         <v>-1.26</v>
       </c>
-      <c r="V17" t="s">
-        <v>269</v>
+      <c r="V17" t="n">
+        <v>1353290</v>
       </c>
       <c r="W17" t="n">
         <v>8.029999999999999</v>
       </c>
-      <c r="X17" t="s">
-        <v>270</v>
+      <c r="X17" t="n">
+        <v>1343662</v>
       </c>
       <c r="Y17" t="n">
         <v>2.03</v>
       </c>
-      <c r="Z17" t="s">
-        <v>271</v>
+      <c r="Z17" t="n">
+        <v>-8505796</v>
       </c>
       <c r="AA17" t="n">
         <v>-65.23</v>
       </c>
-      <c r="AB17" t="s">
-        <v>272</v>
+      <c r="AB17" t="n">
+        <v>-1059823</v>
       </c>
       <c r="AC17" t="n">
         <v>-6.61</v>
       </c>
-      <c r="AD17" t="s">
-        <v>273</v>
+      <c r="AD17" t="n">
+        <v>-1083282</v>
       </c>
       <c r="AE17" t="n">
         <v>-7.2</v>
       </c>
-      <c r="AF17" t="s">
-        <v>274</v>
+      <c r="AF17" t="n">
+        <v>-9550011</v>
       </c>
       <c r="AG17" t="n">
         <v>-15.67</v>
@@ -3501,100 +2199,100 @@
     </row>
     <row r="18" spans="1:33">
       <c r="A18" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B18" t="s">
-        <v>276</v>
+        <v>48</v>
+      </c>
+      <c r="B18" t="n">
+        <v>339801</v>
       </c>
       <c r="C18" t="n">
         <v>2.44</v>
       </c>
-      <c r="D18" t="s">
-        <v>277</v>
+      <c r="D18" t="n">
+        <v>1898183</v>
       </c>
       <c r="E18" t="n">
         <v>10.44</v>
       </c>
-      <c r="F18" t="s">
-        <v>278</v>
+      <c r="F18" t="n">
+        <v>1408561</v>
       </c>
       <c r="G18" t="n">
         <v>8</v>
       </c>
-      <c r="H18" t="s">
-        <v>279</v>
+      <c r="H18" t="n">
+        <v>6643708</v>
       </c>
       <c r="I18" t="n">
         <v>9.470000000000001</v>
       </c>
-      <c r="J18" t="s">
-        <v>280</v>
+      <c r="J18" t="n">
+        <v>1637619</v>
       </c>
       <c r="K18" t="n">
         <v>10.07</v>
       </c>
-      <c r="L18" t="s">
-        <v>281</v>
+      <c r="L18" t="n">
+        <v>2516188</v>
       </c>
       <c r="M18" t="n">
         <v>11.87</v>
       </c>
-      <c r="N18" t="s">
-        <v>282</v>
+      <c r="N18" t="n">
+        <v>1736814</v>
       </c>
       <c r="O18" t="n">
         <v>8.779999999999999</v>
       </c>
-      <c r="P18" t="s">
-        <v>283</v>
+      <c r="P18" t="n">
+        <v>8248404</v>
       </c>
       <c r="Q18" t="n">
         <v>10.62</v>
       </c>
-      <c r="R18" t="s">
-        <v>284</v>
+      <c r="R18" t="n">
+        <v>1037375</v>
       </c>
       <c r="S18" t="n">
         <v>6.75</v>
       </c>
-      <c r="T18" t="s">
-        <v>285</v>
+      <c r="T18" t="n">
+        <v>963342</v>
       </c>
       <c r="U18" t="n">
         <v>5.7</v>
       </c>
-      <c r="V18" t="s">
-        <v>286</v>
+      <c r="V18" t="n">
+        <v>853831</v>
       </c>
       <c r="W18" t="n">
         <v>5.06</v>
       </c>
-      <c r="X18" t="s">
-        <v>287</v>
+      <c r="X18" t="n">
+        <v>4039945</v>
       </c>
       <c r="Y18" t="n">
         <v>6.09</v>
       </c>
-      <c r="Z18" t="s">
-        <v>288</v>
+      <c r="Z18" t="n">
+        <v>406252</v>
       </c>
       <c r="AA18" t="n">
         <v>3.12</v>
       </c>
-      <c r="AB18" t="s">
-        <v>289</v>
+      <c r="AB18" t="n">
+        <v>1968098</v>
       </c>
       <c r="AC18" t="n">
         <v>12.28</v>
       </c>
-      <c r="AD18" t="s">
-        <v>290</v>
+      <c r="AD18" t="n">
+        <v>1479930</v>
       </c>
       <c r="AE18" t="n">
         <v>9.84</v>
       </c>
-      <c r="AF18" t="s">
-        <v>291</v>
+      <c r="AF18" t="n">
+        <v>6233048</v>
       </c>
       <c r="AG18" t="n">
         <v>10.23</v>
@@ -3602,100 +2300,100 @@
     </row>
     <row r="19" spans="1:33">
       <c r="A19" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B19" t="s">
-        <v>293</v>
+        <v>49</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1250044</v>
       </c>
       <c r="C19" t="n">
         <v>8.970000000000001</v>
       </c>
-      <c r="D19" t="s">
-        <v>294</v>
+      <c r="D19" t="n">
+        <v>1295997</v>
       </c>
       <c r="E19" t="n">
         <v>7.13</v>
       </c>
-      <c r="F19" t="s">
-        <v>295</v>
+      <c r="F19" t="n">
+        <v>286766</v>
       </c>
       <c r="G19" t="n">
         <v>1.63</v>
       </c>
-      <c r="H19" t="s">
-        <v>296</v>
+      <c r="H19" t="n">
+        <v>3634132</v>
       </c>
       <c r="I19" t="n">
         <v>5.18</v>
       </c>
-      <c r="J19" t="s">
-        <v>297</v>
+      <c r="J19" t="n">
+        <v>376460</v>
       </c>
       <c r="K19" t="n">
         <v>2.32</v>
       </c>
-      <c r="L19" t="s">
-        <v>298</v>
+      <c r="L19" t="n">
+        <v>2365639</v>
       </c>
       <c r="M19" t="n">
         <v>11.16</v>
       </c>
-      <c r="N19" t="s">
-        <v>299</v>
+      <c r="N19" t="n">
+        <v>981594</v>
       </c>
       <c r="O19" t="n">
         <v>4.96</v>
       </c>
-      <c r="P19" t="s">
-        <v>300</v>
+      <c r="P19" t="n">
+        <v>5471335</v>
       </c>
       <c r="Q19" t="n">
         <v>7.04</v>
       </c>
-      <c r="R19" t="s">
-        <v>301</v>
+      <c r="R19" t="n">
+        <v>807325</v>
       </c>
       <c r="S19" t="n">
         <v>5.26</v>
       </c>
-      <c r="T19" t="s">
-        <v>302</v>
+      <c r="T19" t="n">
+        <v>2318166</v>
       </c>
       <c r="U19" t="n">
         <v>13.72</v>
       </c>
-      <c r="V19" t="s">
-        <v>303</v>
+      <c r="V19" t="n">
+        <v>-890952</v>
       </c>
       <c r="W19" t="n">
         <v>-5.28</v>
       </c>
-      <c r="X19" t="s">
-        <v>304</v>
+      <c r="X19" t="n">
+        <v>2774213</v>
       </c>
       <c r="Y19" t="n">
         <v>4.19</v>
       </c>
-      <c r="Z19" t="s">
-        <v>305</v>
+      <c r="Z19" t="n">
+        <v>-123702</v>
       </c>
       <c r="AA19" t="n">
         <v>-0.95</v>
       </c>
-      <c r="AB19" t="s">
-        <v>306</v>
+      <c r="AB19" t="n">
+        <v>-304542</v>
       </c>
       <c r="AC19" t="n">
         <v>-1.9</v>
       </c>
-      <c r="AD19" t="s">
-        <v>307</v>
+      <c r="AD19" t="n">
+        <v>-101424</v>
       </c>
       <c r="AE19" t="n">
         <v>-0.67</v>
       </c>
-      <c r="AF19" t="s">
-        <v>308</v>
+      <c r="AF19" t="n">
+        <v>243541</v>
       </c>
       <c r="AG19" t="n">
         <v>0.4</v>
@@ -3703,100 +2401,100 @@
     </row>
     <row r="20" spans="1:33">
       <c r="A20" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B20" t="s">
-        <v>310</v>
+        <v>50</v>
+      </c>
+      <c r="B20" t="n">
+        <v>13039407</v>
       </c>
       <c r="C20" t="n">
         <v>93.59999999999999</v>
       </c>
-      <c r="D20" t="s">
-        <v>311</v>
+      <c r="D20" t="n">
+        <v>15670557</v>
       </c>
       <c r="E20" t="n">
         <v>86.19</v>
       </c>
-      <c r="F20" t="s">
-        <v>312</v>
+      <c r="F20" t="n">
+        <v>15671659</v>
       </c>
       <c r="G20" t="n">
         <v>88.98999999999999</v>
       </c>
-      <c r="H20" t="s">
-        <v>313</v>
+      <c r="H20" t="n">
+        <v>61158946</v>
       </c>
       <c r="I20" t="n">
         <v>87.15000000000001</v>
       </c>
-      <c r="J20" t="s">
-        <v>314</v>
+      <c r="J20" t="n">
+        <v>14017994</v>
       </c>
       <c r="K20" t="n">
         <v>86.23</v>
       </c>
-      <c r="L20" t="s">
-        <v>315</v>
+      <c r="L20" t="n">
+        <v>17914198</v>
       </c>
       <c r="M20" t="n">
         <v>84.52</v>
       </c>
-      <c r="N20" t="s">
-        <v>316</v>
+      <c r="N20" t="n">
+        <v>17405889</v>
       </c>
       <c r="O20" t="n">
         <v>87.98</v>
       </c>
-      <c r="P20" t="s">
-        <v>317</v>
+      <c r="P20" t="n">
+        <v>66553091</v>
       </c>
       <c r="Q20" t="n">
         <v>85.67</v>
       </c>
-      <c r="R20" t="s">
-        <v>318</v>
+      <c r="R20" t="n">
+        <v>13729956</v>
       </c>
       <c r="S20" t="n">
         <v>89.37</v>
       </c>
-      <c r="T20" t="s">
-        <v>319</v>
+      <c r="T20" t="n">
+        <v>15092848</v>
       </c>
       <c r="U20" t="n">
         <v>89.36</v>
       </c>
-      <c r="V20" t="s">
-        <v>320</v>
+      <c r="V20" t="n">
+        <v>15359881</v>
       </c>
       <c r="W20" t="n">
         <v>91.09999999999999</v>
       </c>
-      <c r="X20" t="s">
-        <v>321</v>
+      <c r="X20" t="n">
+        <v>59228641</v>
       </c>
       <c r="Y20" t="n">
         <v>89.34999999999999</v>
       </c>
-      <c r="Z20" t="s">
-        <v>322</v>
+      <c r="Z20" t="n">
+        <v>12040729</v>
       </c>
       <c r="AA20" t="n">
         <v>92.34</v>
       </c>
-      <c r="AB20" t="s">
-        <v>323</v>
+      <c r="AB20" t="n">
+        <v>13435994</v>
       </c>
       <c r="AC20" t="n">
         <v>83.83</v>
       </c>
-      <c r="AD20" t="s">
-        <v>324</v>
+      <c r="AD20" t="n">
+        <v>12965789</v>
       </c>
       <c r="AE20" t="n">
         <v>86.23</v>
       </c>
-      <c r="AF20" t="s">
-        <v>325</v>
+      <c r="AF20" t="n">
+        <v>52358957</v>
       </c>
       <c r="AG20" t="n">
         <v>85.91</v>
@@ -3804,100 +2502,100 @@
     </row>
     <row r="21" spans="1:33">
       <c r="A21" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B21" t="s">
-        <v>327</v>
+        <v>51</v>
+      </c>
+      <c r="B21" t="n">
+        <v>13931550</v>
       </c>
       <c r="C21" t="n">
         <v>100</v>
       </c>
-      <c r="D21" t="s">
-        <v>328</v>
+      <c r="D21" t="n">
+        <v>18181256</v>
       </c>
       <c r="E21" t="n">
         <v>100</v>
       </c>
-      <c r="F21" t="s">
-        <v>329</v>
+      <c r="F21" t="n">
+        <v>17609788</v>
       </c>
       <c r="G21" t="n">
         <v>100</v>
       </c>
-      <c r="H21" t="s">
-        <v>330</v>
+      <c r="H21" t="n">
+        <v>70172781</v>
       </c>
       <c r="I21" t="n">
         <v>100</v>
       </c>
-      <c r="J21" t="s">
-        <v>331</v>
+      <c r="J21" t="n">
+        <v>16256080</v>
       </c>
       <c r="K21" t="n">
         <v>100</v>
       </c>
-      <c r="L21" t="s">
-        <v>332</v>
+      <c r="L21" t="n">
+        <v>21194832</v>
       </c>
       <c r="M21" t="n">
         <v>100</v>
       </c>
-      <c r="N21" t="s">
-        <v>333</v>
+      <c r="N21" t="n">
+        <v>19783979</v>
       </c>
       <c r="O21" t="n">
         <v>100</v>
       </c>
-      <c r="P21" t="s">
-        <v>334</v>
+      <c r="P21" t="n">
+        <v>77683281</v>
       </c>
       <c r="Q21" t="n">
         <v>100</v>
       </c>
-      <c r="R21" t="s">
-        <v>335</v>
+      <c r="R21" t="n">
+        <v>15362530</v>
       </c>
       <c r="S21" t="n">
         <v>100</v>
       </c>
-      <c r="T21" t="s">
-        <v>336</v>
+      <c r="T21" t="n">
+        <v>16890231</v>
       </c>
       <c r="U21" t="n">
         <v>100</v>
       </c>
-      <c r="V21" t="s">
-        <v>337</v>
+      <c r="V21" t="n">
+        <v>16861149</v>
       </c>
       <c r="W21" t="n">
         <v>100</v>
       </c>
-      <c r="X21" t="s">
-        <v>338</v>
+      <c r="X21" t="n">
+        <v>66287480</v>
       </c>
       <c r="Y21" t="n">
         <v>100</v>
       </c>
-      <c r="Z21" t="s">
-        <v>339</v>
+      <c r="Z21" t="n">
+        <v>13038960</v>
       </c>
       <c r="AA21" t="n">
         <v>100</v>
       </c>
-      <c r="AB21" t="s">
-        <v>340</v>
+      <c r="AB21" t="n">
+        <v>16028285</v>
       </c>
       <c r="AC21" t="n">
         <v>100</v>
       </c>
-      <c r="AD21" t="s">
-        <v>341</v>
+      <c r="AD21" t="n">
+        <v>15037038</v>
       </c>
       <c r="AE21" t="n">
         <v>100</v>
       </c>
-      <c r="AF21" t="s">
-        <v>342</v>
+      <c r="AF21" t="n">
+        <v>60946190</v>
       </c>
       <c r="AG21" t="n">
         <v>100</v>
@@ -3905,100 +2603,100 @@
     </row>
     <row r="22" spans="1:33">
       <c r="A22" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B22" t="s">
-        <v>344</v>
+        <v>52</v>
+      </c>
+      <c r="B22" t="n">
+        <v>892143</v>
       </c>
       <c r="C22" t="n">
         <v>6.4</v>
       </c>
-      <c r="D22" t="s">
-        <v>345</v>
+      <c r="D22" t="n">
+        <v>2510699</v>
       </c>
       <c r="E22" t="n">
         <v>13.81</v>
       </c>
-      <c r="F22" t="s">
-        <v>346</v>
+      <c r="F22" t="n">
+        <v>1938129</v>
       </c>
       <c r="G22" t="n">
         <v>11.01</v>
       </c>
-      <c r="H22" t="s">
-        <v>347</v>
+      <c r="H22" t="n">
+        <v>9013835</v>
       </c>
       <c r="I22" t="n">
         <v>12.85</v>
       </c>
-      <c r="J22" t="s">
-        <v>348</v>
+      <c r="J22" t="n">
+        <v>2238086</v>
       </c>
       <c r="K22" t="n">
         <v>13.77</v>
       </c>
-      <c r="L22" t="s">
-        <v>349</v>
+      <c r="L22" t="n">
+        <v>3280634</v>
       </c>
       <c r="M22" t="n">
         <v>15.48</v>
       </c>
-      <c r="N22" t="s">
-        <v>350</v>
+      <c r="N22" t="n">
+        <v>2378090</v>
       </c>
       <c r="O22" t="n">
         <v>12.02</v>
       </c>
-      <c r="P22" t="s">
-        <v>351</v>
+      <c r="P22" t="n">
+        <v>11130190</v>
       </c>
       <c r="Q22" t="n">
         <v>14.33</v>
       </c>
-      <c r="R22" t="s">
-        <v>352</v>
+      <c r="R22" t="n">
+        <v>1632574</v>
       </c>
       <c r="S22" t="n">
         <v>10.63</v>
       </c>
-      <c r="T22" t="s">
-        <v>353</v>
+      <c r="T22" t="n">
+        <v>1797383</v>
       </c>
       <c r="U22" t="n">
         <v>10.64</v>
       </c>
-      <c r="V22" t="s">
-        <v>354</v>
+      <c r="V22" t="n">
+        <v>1501268</v>
       </c>
       <c r="W22" t="n">
         <v>8.9</v>
       </c>
-      <c r="X22" t="s">
-        <v>355</v>
+      <c r="X22" t="n">
+        <v>7058839</v>
       </c>
       <c r="Y22" t="n">
         <v>10.65</v>
       </c>
-      <c r="Z22" t="s">
-        <v>356</v>
+      <c r="Z22" t="n">
+        <v>998231</v>
       </c>
       <c r="AA22" t="n">
         <v>7.66</v>
       </c>
-      <c r="AB22" t="s">
-        <v>357</v>
+      <c r="AB22" t="n">
+        <v>2592291</v>
       </c>
       <c r="AC22" t="n">
         <v>16.17</v>
       </c>
-      <c r="AD22" t="s">
-        <v>358</v>
+      <c r="AD22" t="n">
+        <v>2071249</v>
       </c>
       <c r="AE22" t="n">
         <v>13.77</v>
       </c>
-      <c r="AF22" t="s">
-        <v>359</v>
+      <c r="AF22" t="n">
+        <v>8587233</v>
       </c>
       <c r="AG22" t="n">
         <v>14.09</v>
@@ -4006,100 +2704,100 @@
     </row>
     <row r="23" spans="1:33">
       <c r="A23" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="B23" t="s">
-        <v>361</v>
+        <v>53</v>
+      </c>
+      <c r="B23" t="n">
+        <v>892180</v>
       </c>
       <c r="C23" t="n">
         <v>6.4</v>
       </c>
-      <c r="D23" t="s">
-        <v>362</v>
+      <c r="D23" t="n">
+        <v>2510687</v>
       </c>
       <c r="E23" t="n">
         <v>13.81</v>
       </c>
-      <c r="F23" t="s">
-        <v>363</v>
+      <c r="F23" t="n">
+        <v>1938103</v>
       </c>
       <c r="G23" t="n">
         <v>11.01</v>
       </c>
-      <c r="H23" t="s">
-        <v>364</v>
+      <c r="H23" t="n">
+        <v>9013803</v>
       </c>
       <c r="I23" t="n">
         <v>12.85</v>
       </c>
-      <c r="J23" t="s">
-        <v>365</v>
+      <c r="J23" t="n">
+        <v>2237728</v>
       </c>
       <c r="K23" t="n">
         <v>13.77</v>
       </c>
-      <c r="L23" t="s">
-        <v>366</v>
+      <c r="L23" t="n">
+        <v>3280189</v>
       </c>
       <c r="M23" t="n">
         <v>15.48</v>
       </c>
-      <c r="N23" t="s">
-        <v>367</v>
+      <c r="N23" t="n">
+        <v>2378226</v>
       </c>
       <c r="O23" t="n">
         <v>12.02</v>
       </c>
-      <c r="P23" t="s">
-        <v>368</v>
+      <c r="P23" t="n">
+        <v>11129604</v>
       </c>
       <c r="Q23" t="n">
         <v>14.33</v>
       </c>
-      <c r="R23" t="s">
-        <v>369</v>
+      <c r="R23" t="n">
+        <v>1631311</v>
       </c>
       <c r="S23" t="n">
         <v>10.62</v>
       </c>
-      <c r="T23" t="s">
-        <v>370</v>
+      <c r="T23" t="n">
+        <v>1797824</v>
       </c>
       <c r="U23" t="n">
         <v>10.64</v>
       </c>
-      <c r="V23" t="s">
-        <v>371</v>
+      <c r="V23" t="n">
+        <v>1501672</v>
       </c>
       <c r="W23" t="n">
         <v>8.91</v>
       </c>
-      <c r="X23" t="s">
-        <v>372</v>
+      <c r="X23" t="n">
+        <v>7058747</v>
       </c>
       <c r="Y23" t="n">
         <v>10.65</v>
       </c>
-      <c r="Z23" t="s">
-        <v>373</v>
+      <c r="Z23" t="n">
+        <v>998432</v>
       </c>
       <c r="AA23" t="n">
         <v>7.66</v>
       </c>
-      <c r="AB23" t="s">
-        <v>374</v>
+      <c r="AB23" t="n">
+        <v>2592740</v>
       </c>
       <c r="AC23" t="n">
         <v>16.18</v>
       </c>
-      <c r="AD23" t="s">
-        <v>375</v>
+      <c r="AD23" t="n">
+        <v>2071279</v>
       </c>
       <c r="AE23" t="n">
         <v>13.77</v>
       </c>
-      <c r="AF23" t="s">
-        <v>376</v>
+      <c r="AF23" t="n">
+        <v>8588274</v>
       </c>
       <c r="AG23" t="n">
         <v>14.09</v>
@@ -4107,100 +2805,100 @@
     </row>
     <row r="24" spans="1:33">
       <c r="A24" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B24" t="s">
-        <v>378</v>
+        <v>54</v>
+      </c>
+      <c r="B24" t="n">
+        <v>552379</v>
       </c>
       <c r="C24" t="n">
         <v>3.96</v>
       </c>
-      <c r="D24" t="s">
-        <v>379</v>
+      <c r="D24" t="n">
+        <v>612504</v>
       </c>
       <c r="E24" t="n">
         <v>3.37</v>
       </c>
-      <c r="F24" t="s">
-        <v>380</v>
+      <c r="F24" t="n">
+        <v>529542</v>
       </c>
       <c r="G24" t="n">
         <v>3.01</v>
       </c>
-      <c r="H24" t="s">
-        <v>381</v>
+      <c r="H24" t="n">
+        <v>2370095</v>
       </c>
       <c r="I24" t="n">
         <v>3.38</v>
       </c>
-      <c r="J24" t="s">
-        <v>382</v>
+      <c r="J24" t="n">
+        <v>600109</v>
       </c>
       <c r="K24" t="n">
         <v>3.69</v>
       </c>
-      <c r="L24" t="s">
-        <v>383</v>
+      <c r="L24" t="n">
+        <v>764001</v>
       </c>
       <c r="M24" t="n">
         <v>3.6</v>
       </c>
-      <c r="N24" t="s">
-        <v>384</v>
+      <c r="N24" t="n">
+        <v>641412</v>
       </c>
       <c r="O24" t="n">
         <v>3.24</v>
       </c>
-      <c r="P24" t="s">
-        <v>385</v>
+      <c r="P24" t="n">
+        <v>2881200</v>
       </c>
       <c r="Q24" t="n">
         <v>3.71</v>
       </c>
-      <c r="R24" t="s">
-        <v>386</v>
+      <c r="R24" t="n">
+        <v>593936</v>
       </c>
       <c r="S24" t="n">
         <v>3.87</v>
       </c>
-      <c r="T24" t="s">
-        <v>387</v>
+      <c r="T24" t="n">
+        <v>834482</v>
       </c>
       <c r="U24" t="n">
         <v>4.94</v>
       </c>
-      <c r="V24" t="s">
-        <v>388</v>
+      <c r="V24" t="n">
+        <v>647841</v>
       </c>
       <c r="W24" t="n">
         <v>3.84</v>
       </c>
-      <c r="X24" t="s">
-        <v>389</v>
+      <c r="X24" t="n">
+        <v>3018802</v>
       </c>
       <c r="Y24" t="n">
         <v>4.55</v>
       </c>
-      <c r="Z24" t="s">
-        <v>390</v>
+      <c r="Z24" t="n">
+        <v>592180</v>
       </c>
       <c r="AA24" t="n">
         <v>4.54</v>
       </c>
-      <c r="AB24" t="s">
-        <v>391</v>
+      <c r="AB24" t="n">
+        <v>624642</v>
       </c>
       <c r="AC24" t="n">
         <v>3.9</v>
       </c>
-      <c r="AD24" t="s">
-        <v>392</v>
+      <c r="AD24" t="n">
+        <v>591349</v>
       </c>
       <c r="AE24" t="n">
         <v>3.93</v>
       </c>
-      <c r="AF24" t="s">
-        <v>393</v>
+      <c r="AF24" t="n">
+        <v>2355226</v>
       </c>
       <c r="AG24" t="n">
         <v>3.86</v>
@@ -4208,52 +2906,52 @@
     </row>
     <row r="25" spans="1:33">
       <c r="A25" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="B25" t="s">
-        <v>395</v>
+        <v>55</v>
+      </c>
+      <c r="B25" t="n">
+        <v>5537</v>
       </c>
       <c r="C25" t="n">
         <v>0.04</v>
       </c>
-      <c r="D25" t="s">
-        <v>396</v>
+      <c r="D25" t="n">
+        <v>8023</v>
       </c>
       <c r="E25" t="n">
         <v>0.04</v>
       </c>
-      <c r="F25" t="s">
-        <v>397</v>
+      <c r="F25" t="n">
+        <v>2420</v>
       </c>
       <c r="G25" t="n">
         <v>0.01</v>
       </c>
-      <c r="H25" t="s">
-        <v>398</v>
+      <c r="H25" t="n">
+        <v>20330</v>
       </c>
       <c r="I25" t="n">
         <v>0.03</v>
       </c>
-      <c r="J25" t="s">
-        <v>399</v>
+      <c r="J25" t="n">
+        <v>3931</v>
       </c>
       <c r="K25" t="n">
         <v>0.02</v>
       </c>
-      <c r="L25" t="s">
-        <v>400</v>
+      <c r="L25" t="n">
+        <v>4079</v>
       </c>
       <c r="M25" t="n">
         <v>0.02</v>
       </c>
-      <c r="N25" t="s">
-        <v>401</v>
+      <c r="N25" t="n">
+        <v>4596</v>
       </c>
       <c r="O25" t="n">
         <v>0.02</v>
       </c>
-      <c r="P25" t="s">
-        <v>402</v>
+      <c r="P25" t="n">
+        <v>13877</v>
       </c>
       <c r="Q25" t="n">
         <v>0.02</v>
@@ -4277,7 +2975,7 @@
     </row>
     <row r="26" spans="1:33">
       <c r="A26" s="1" t="s">
-        <v>403</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s"/>
       <c r="C26" t="s"/>
@@ -4295,50 +2993,50 @@
       <c r="O26" t="s"/>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
-      <c r="R26" t="s">
-        <v>404</v>
+      <c r="R26" t="n">
+        <v>6937</v>
       </c>
       <c r="S26" t="n">
         <v>0.05</v>
       </c>
-      <c r="T26" t="s">
-        <v>405</v>
+      <c r="T26" t="n">
+        <v>3810</v>
       </c>
       <c r="U26" t="n">
         <v>0.02</v>
       </c>
-      <c r="V26" t="s">
-        <v>406</v>
+      <c r="V26" t="n">
+        <v>3392</v>
       </c>
       <c r="W26" t="n">
         <v>0.02</v>
       </c>
-      <c r="X26" t="s">
-        <v>407</v>
+      <c r="X26" t="n">
+        <v>17718</v>
       </c>
       <c r="Y26" t="n">
         <v>0.03</v>
       </c>
-      <c r="Z26" t="s">
-        <v>135</v>
+      <c r="Z26" t="n">
+        <v>0</v>
       </c>
       <c r="AA26" t="n">
         <v>0</v>
       </c>
-      <c r="AB26" t="s">
-        <v>135</v>
+      <c r="AB26" t="n">
+        <v>0</v>
       </c>
       <c r="AC26" t="n">
         <v>0</v>
       </c>
-      <c r="AD26" t="s">
-        <v>135</v>
+      <c r="AD26" t="n">
+        <v>0</v>
       </c>
       <c r="AE26" t="n">
         <v>0</v>
       </c>
-      <c r="AF26" t="s">
-        <v>135</v>
+      <c r="AF26" t="n">
+        <v>0</v>
       </c>
       <c r="AG26" t="n">
         <v>0</v>
@@ -4346,7 +3044,7 @@
     </row>
     <row r="27" spans="1:33">
       <c r="A27" s="1" t="s">
-        <v>408</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s"/>
       <c r="C27" t="s"/>
@@ -4354,8 +3052,8 @@
       <c r="E27" t="s"/>
       <c r="F27" t="s"/>
       <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>409</v>
+      <c r="H27" t="n">
+        <v>262379</v>
       </c>
       <c r="I27" t="n">
         <v>0.37</v>
@@ -4366,56 +3064,56 @@
       <c r="M27" t="s"/>
       <c r="N27" t="s"/>
       <c r="O27" t="s"/>
-      <c r="P27" t="s">
-        <v>410</v>
+      <c r="P27" t="n">
+        <v>4146</v>
       </c>
       <c r="Q27" t="n">
         <v>0.01</v>
       </c>
-      <c r="R27" t="s">
-        <v>411</v>
+      <c r="R27" t="n">
+        <v>-21995</v>
       </c>
       <c r="S27" t="n">
         <v>-0.14</v>
       </c>
-      <c r="T27" t="s">
-        <v>135</v>
+      <c r="T27" t="n">
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
-      <c r="V27" t="s">
-        <v>135</v>
+      <c r="V27" t="n">
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
-      <c r="X27" t="s">
-        <v>412</v>
+      <c r="X27" t="n">
+        <v>-468796</v>
       </c>
       <c r="Y27" t="n">
         <v>-0.71</v>
       </c>
-      <c r="Z27" t="s">
-        <v>135</v>
+      <c r="Z27" t="n">
+        <v>0</v>
       </c>
       <c r="AA27" t="n">
         <v>0</v>
       </c>
-      <c r="AB27" t="s">
-        <v>135</v>
+      <c r="AB27" t="n">
+        <v>0</v>
       </c>
       <c r="AC27" t="n">
         <v>0</v>
       </c>
-      <c r="AD27" t="s">
-        <v>135</v>
+      <c r="AD27" t="n">
+        <v>0</v>
       </c>
       <c r="AE27" t="n">
         <v>0</v>
       </c>
-      <c r="AF27" t="s">
-        <v>413</v>
+      <c r="AF27" t="n">
+        <v>-59867</v>
       </c>
       <c r="AG27" t="n">
         <v>-0.1</v>
@@ -4423,169 +3121,169 @@
     </row>
     <row r="28" spans="1:33">
       <c r="A28" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B28" t="s">
-        <v>415</v>
+        <v>58</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.37</v>
       </c>
       <c r="C28" t="s"/>
-      <c r="D28" t="s">
-        <v>416</v>
+      <c r="D28" t="n">
+        <v>0.72</v>
       </c>
       <c r="E28" t="s"/>
-      <c r="F28" t="s">
-        <v>120</v>
+      <c r="F28" t="n">
+        <v>0.34</v>
       </c>
       <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>417</v>
+      <c r="H28" t="n">
+        <v>2.12</v>
       </c>
       <c r="I28" t="s"/>
-      <c r="J28" t="s">
-        <v>118</v>
+      <c r="J28" t="n">
+        <v>0.4</v>
       </c>
       <c r="K28" t="s"/>
-      <c r="L28" t="s">
-        <v>418</v>
+      <c r="L28" t="n">
+        <v>1.16</v>
       </c>
       <c r="M28" t="s"/>
-      <c r="N28" t="s">
-        <v>419</v>
+      <c r="N28" t="n">
+        <v>0.6</v>
       </c>
       <c r="O28" t="s"/>
-      <c r="P28" t="s">
-        <v>420</v>
+      <c r="P28" t="n">
+        <v>2.65</v>
       </c>
       <c r="Q28" t="s"/>
-      <c r="R28" t="s">
-        <v>421</v>
+      <c r="R28" t="n">
+        <v>0.44</v>
       </c>
       <c r="S28" t="s"/>
-      <c r="T28" t="s">
-        <v>126</v>
+      <c r="T28" t="n">
+        <v>0.9399999999999999</v>
       </c>
       <c r="U28" t="s"/>
-      <c r="V28" t="s">
-        <v>422</v>
+      <c r="V28" t="n">
+        <v>-0.02</v>
       </c>
       <c r="W28" t="s"/>
-      <c r="X28" t="s">
-        <v>423</v>
+      <c r="X28" t="n">
+        <v>1.32</v>
       </c>
       <c r="Y28" t="s"/>
-      <c r="Z28" t="s">
-        <v>129</v>
+      <c r="Z28" t="n">
+        <v>0.06</v>
       </c>
       <c r="AA28" t="s"/>
-      <c r="AB28" t="s">
-        <v>130</v>
+      <c r="AB28" t="n">
+        <v>0.38</v>
       </c>
       <c r="AC28" t="s"/>
-      <c r="AD28" t="s">
-        <v>131</v>
+      <c r="AD28" t="n">
+        <v>0.3</v>
       </c>
       <c r="AE28" t="s"/>
-      <c r="AF28" t="s">
-        <v>424</v>
+      <c r="AF28" t="n">
+        <v>1.24</v>
       </c>
       <c r="AG28" t="s"/>
     </row>
     <row r="29" spans="1:33">
       <c r="A29" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="B29" t="s">
-        <v>426</v>
+        <v>59</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1589845</v>
       </c>
       <c r="C29" t="n">
         <v>11.41</v>
       </c>
-      <c r="D29" t="s">
-        <v>427</v>
+      <c r="D29" t="n">
+        <v>3194180</v>
       </c>
       <c r="E29" t="n">
         <v>17.57</v>
       </c>
-      <c r="F29" t="s">
-        <v>428</v>
+      <c r="F29" t="n">
+        <v>1695327</v>
       </c>
       <c r="G29" t="n">
         <v>9.630000000000001</v>
       </c>
-      <c r="H29" t="s">
-        <v>429</v>
+      <c r="H29" t="n">
+        <v>10277840</v>
       </c>
       <c r="I29" t="n">
         <v>14.65</v>
       </c>
-      <c r="J29" t="s">
-        <v>430</v>
+      <c r="J29" t="n">
+        <v>2014079</v>
       </c>
       <c r="K29" t="n">
         <v>12.39</v>
       </c>
-      <c r="L29" t="s">
-        <v>431</v>
+      <c r="L29" t="n">
+        <v>4881827</v>
       </c>
       <c r="M29" t="n">
         <v>23.03</v>
       </c>
-      <c r="N29" t="s">
-        <v>432</v>
+      <c r="N29" t="n">
+        <v>2718408</v>
       </c>
       <c r="O29" t="n">
         <v>13.74</v>
       </c>
-      <c r="P29" t="s">
-        <v>433</v>
+      <c r="P29" t="n">
+        <v>13719739</v>
       </c>
       <c r="Q29" t="n">
         <v>17.66</v>
       </c>
-      <c r="R29" t="s">
-        <v>434</v>
+      <c r="R29" t="n">
+        <v>1844700</v>
       </c>
       <c r="S29" t="n">
         <v>12.01</v>
       </c>
-      <c r="T29" t="s">
-        <v>435</v>
+      <c r="T29" t="n">
+        <v>3281508</v>
       </c>
       <c r="U29" t="n">
         <v>19.43</v>
       </c>
-      <c r="V29" t="s">
-        <v>436</v>
+      <c r="V29" t="n">
+        <v>-37121</v>
       </c>
       <c r="W29" t="n">
         <v>-0.22</v>
       </c>
-      <c r="X29" t="s">
-        <v>437</v>
+      <c r="X29" t="n">
+        <v>6814158</v>
       </c>
       <c r="Y29" t="n">
         <v>10.28</v>
       </c>
-      <c r="Z29" t="s">
-        <v>438</v>
+      <c r="Z29" t="n">
+        <v>282550</v>
       </c>
       <c r="AA29" t="n">
         <v>2.17</v>
       </c>
-      <c r="AB29" t="s">
-        <v>439</v>
+      <c r="AB29" t="n">
+        <v>1663556</v>
       </c>
       <c r="AC29" t="n">
         <v>10.38</v>
       </c>
-      <c r="AD29" t="s">
-        <v>440</v>
+      <c r="AD29" t="n">
+        <v>1378506</v>
       </c>
       <c r="AE29" t="n">
         <v>9.17</v>
       </c>
-      <c r="AF29" t="s">
-        <v>441</v>
+      <c r="AF29" t="n">
+        <v>6476589</v>
       </c>
       <c r="AG29" t="n">
         <v>10.63</v>
@@ -4593,100 +3291,100 @@
     </row>
     <row r="30" spans="1:33">
       <c r="A30" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="B30" t="s">
-        <v>208</v>
+        <v>60</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1371559</v>
       </c>
       <c r="C30" t="n">
         <v>9.84</v>
       </c>
-      <c r="D30" t="s">
-        <v>209</v>
+      <c r="D30" t="n">
+        <v>2934680</v>
       </c>
       <c r="E30" t="n">
         <v>16.14</v>
       </c>
-      <c r="F30" t="s">
-        <v>210</v>
+      <c r="F30" t="n">
+        <v>1361389</v>
       </c>
       <c r="G30" t="n">
         <v>7.73</v>
       </c>
-      <c r="H30" t="s">
-        <v>211</v>
+      <c r="H30" t="n">
+        <v>8451890</v>
       </c>
       <c r="I30" t="n">
         <v>12.04</v>
       </c>
-      <c r="J30" t="s">
-        <v>212</v>
+      <c r="J30" t="n">
+        <v>1683231</v>
       </c>
       <c r="K30" t="n">
         <v>10.35</v>
       </c>
-      <c r="L30" t="s">
-        <v>213</v>
+      <c r="L30" t="n">
+        <v>4195441</v>
       </c>
       <c r="M30" t="n">
         <v>19.79</v>
       </c>
-      <c r="N30" t="s">
-        <v>214</v>
+      <c r="N30" t="n">
+        <v>2360599</v>
       </c>
       <c r="O30" t="n">
         <v>11.93</v>
       </c>
-      <c r="P30" t="s">
-        <v>215</v>
+      <c r="P30" t="n">
+        <v>10905998</v>
       </c>
       <c r="Q30" t="n">
         <v>14.04</v>
       </c>
-      <c r="R30" t="s">
-        <v>216</v>
+      <c r="R30" t="n">
+        <v>1542288</v>
       </c>
       <c r="S30" t="n">
         <v>10.04</v>
       </c>
-      <c r="T30" t="s">
-        <v>217</v>
+      <c r="T30" t="n">
+        <v>3033963</v>
       </c>
       <c r="U30" t="n">
         <v>17.96</v>
       </c>
-      <c r="V30" t="s">
-        <v>218</v>
+      <c r="V30" t="n">
+        <v>-169697</v>
       </c>
       <c r="W30" t="n">
         <v>-1.01</v>
       </c>
-      <c r="X30" t="s">
-        <v>219</v>
+      <c r="X30" t="n">
+        <v>4934483</v>
       </c>
       <c r="Y30" t="n">
         <v>7.44</v>
       </c>
-      <c r="Z30" t="s">
-        <v>220</v>
+      <c r="Z30" t="n">
+        <v>194459</v>
       </c>
       <c r="AA30" t="n">
         <v>1.49</v>
       </c>
-      <c r="AB30" t="s">
-        <v>221</v>
+      <c r="AB30" t="n">
+        <v>1337358</v>
       </c>
       <c r="AC30" t="n">
         <v>8.34</v>
       </c>
-      <c r="AD30" t="s">
-        <v>222</v>
+      <c r="AD30" t="n">
+        <v>1170163</v>
       </c>
       <c r="AE30" t="n">
         <v>7.78</v>
       </c>
-      <c r="AF30" t="s">
-        <v>223</v>
+      <c r="AF30" t="n">
+        <v>4683297</v>
       </c>
       <c r="AG30" t="n">
         <v>7.68</v>
@@ -4694,76 +3392,76 @@
     </row>
     <row r="31" spans="1:33">
       <c r="A31" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="B31" t="s">
-        <v>415</v>
+        <v>61</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.37</v>
       </c>
       <c r="C31" t="s"/>
-      <c r="D31" t="s">
-        <v>416</v>
+      <c r="D31" t="n">
+        <v>0.72</v>
       </c>
       <c r="E31" t="s"/>
-      <c r="F31" t="s">
-        <v>120</v>
+      <c r="F31" t="n">
+        <v>0.34</v>
       </c>
       <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>417</v>
+      <c r="H31" t="n">
+        <v>2.12</v>
       </c>
       <c r="I31" t="s"/>
-      <c r="J31" t="s">
-        <v>118</v>
+      <c r="J31" t="n">
+        <v>0.4</v>
       </c>
       <c r="K31" t="s"/>
-      <c r="L31" t="s">
-        <v>418</v>
+      <c r="L31" t="n">
+        <v>1.16</v>
       </c>
       <c r="M31" t="s"/>
-      <c r="N31" t="s">
-        <v>419</v>
+      <c r="N31" t="n">
+        <v>0.6</v>
       </c>
       <c r="O31" t="s"/>
-      <c r="P31" t="s">
-        <v>420</v>
+      <c r="P31" t="n">
+        <v>2.65</v>
       </c>
       <c r="Q31" t="s"/>
-      <c r="R31" t="s">
-        <v>421</v>
+      <c r="R31" t="n">
+        <v>0.44</v>
       </c>
       <c r="S31" t="s"/>
-      <c r="T31" t="s">
-        <v>126</v>
+      <c r="T31" t="n">
+        <v>0.9399999999999999</v>
       </c>
       <c r="U31" t="s"/>
-      <c r="V31" t="s">
-        <v>422</v>
+      <c r="V31" t="n">
+        <v>-0.02</v>
       </c>
       <c r="W31" t="s"/>
-      <c r="X31" t="s">
-        <v>423</v>
+      <c r="X31" t="n">
+        <v>1.32</v>
       </c>
       <c r="Y31" t="s"/>
-      <c r="Z31" t="s">
-        <v>129</v>
+      <c r="Z31" t="n">
+        <v>0.06</v>
       </c>
       <c r="AA31" t="s"/>
-      <c r="AB31" t="s">
-        <v>130</v>
+      <c r="AB31" t="n">
+        <v>0.38</v>
       </c>
       <c r="AC31" t="s"/>
-      <c r="AD31" t="s">
-        <v>131</v>
+      <c r="AD31" t="n">
+        <v>0.3</v>
       </c>
       <c r="AE31" t="s"/>
-      <c r="AF31" t="s">
-        <v>424</v>
+      <c r="AF31" t="n">
+        <v>1.24</v>
       </c>
       <c r="AG31" t="s"/>
     </row>
     <row r="32" spans="1:33">
       <c r="A32" s="1" t="s">
-        <v>444</v>
+        <v>62</v>
       </c>
       <c r="B32" t="s"/>
       <c r="C32" t="s"/>
@@ -4771,32 +3469,32 @@
       <c r="E32" t="s"/>
       <c r="F32" t="s"/>
       <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>445</v>
+      <c r="H32" t="n">
+        <v>19511</v>
       </c>
       <c r="I32" t="n">
         <v>0.03</v>
       </c>
-      <c r="J32" t="s">
-        <v>446</v>
+      <c r="J32" t="n">
+        <v>6418</v>
       </c>
       <c r="K32" t="n">
         <v>0.04</v>
       </c>
-      <c r="L32" t="s">
-        <v>135</v>
+      <c r="L32" t="n">
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
-      <c r="N32" t="s">
-        <v>135</v>
+      <c r="N32" t="n">
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
-      <c r="P32" t="s">
-        <v>447</v>
+      <c r="P32" t="n">
+        <v>14267</v>
       </c>
       <c r="Q32" t="n">
         <v>0.02</v>
@@ -4820,100 +3518,100 @@
     </row>
     <row r="33" spans="1:33">
       <c r="A33" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="B33" t="s">
-        <v>449</v>
+        <v>63</v>
+      </c>
+      <c r="B33" t="n">
+        <v>424975</v>
       </c>
       <c r="C33" t="n">
         <v>3.05</v>
       </c>
-      <c r="D33" t="s">
-        <v>450</v>
+      <c r="D33" t="n">
+        <v>415465</v>
       </c>
       <c r="E33" t="n">
         <v>2.29</v>
       </c>
-      <c r="F33" t="s">
-        <v>451</v>
+      <c r="F33" t="n">
+        <v>410917</v>
       </c>
       <c r="G33" t="n">
         <v>2.33</v>
       </c>
-      <c r="H33" t="s">
-        <v>452</v>
+      <c r="H33" t="n">
+        <v>1640205</v>
       </c>
       <c r="I33" t="n">
         <v>2.34</v>
       </c>
-      <c r="J33" t="s">
-        <v>453</v>
+      <c r="J33" t="n">
+        <v>385203</v>
       </c>
       <c r="K33" t="n">
         <v>2.37</v>
       </c>
-      <c r="L33" t="s">
-        <v>454</v>
+      <c r="L33" t="n">
+        <v>425876</v>
       </c>
       <c r="M33" t="n">
         <v>2.01</v>
       </c>
-      <c r="N33" t="s">
-        <v>455</v>
+      <c r="N33" t="n">
+        <v>435053</v>
       </c>
       <c r="O33" t="n">
         <v>2.2</v>
       </c>
-      <c r="P33" t="s">
-        <v>456</v>
+      <c r="P33" t="n">
+        <v>1667598</v>
       </c>
       <c r="Q33" t="n">
         <v>2.15</v>
       </c>
-      <c r="R33" t="s">
-        <v>457</v>
+      <c r="R33" t="n">
+        <v>412287</v>
       </c>
       <c r="S33" t="n">
         <v>2.68</v>
       </c>
-      <c r="T33" t="s">
-        <v>458</v>
+      <c r="T33" t="n">
+        <v>414425</v>
       </c>
       <c r="U33" t="n">
         <v>2.45</v>
       </c>
-      <c r="V33" t="s">
-        <v>459</v>
+      <c r="V33" t="n">
+        <v>416309</v>
       </c>
       <c r="W33" t="n">
         <v>2.47</v>
       </c>
-      <c r="X33" t="s">
-        <v>460</v>
+      <c r="X33" t="n">
+        <v>1647870</v>
       </c>
       <c r="Y33" t="n">
         <v>2.49</v>
       </c>
-      <c r="Z33" t="s">
-        <v>461</v>
+      <c r="Z33" t="n">
+        <v>418599</v>
       </c>
       <c r="AA33" t="n">
         <v>3.21</v>
       </c>
-      <c r="AB33" t="s">
-        <v>462</v>
+      <c r="AB33" t="n">
+        <v>397161</v>
       </c>
       <c r="AC33" t="n">
         <v>2.48</v>
       </c>
-      <c r="AD33" t="s">
-        <v>463</v>
+      <c r="AD33" t="n">
+        <v>383638</v>
       </c>
       <c r="AE33" t="n">
         <v>2.55</v>
       </c>
-      <c r="AF33" t="s">
-        <v>464</v>
+      <c r="AF33" t="n">
+        <v>1638218</v>
       </c>
       <c r="AG33" t="n">
         <v>2.69</v>
@@ -4921,7 +3619,7 @@
     </row>
     <row r="34" spans="1:33">
       <c r="A34" s="1" t="s">
-        <v>465</v>
+        <v>64</v>
       </c>
       <c r="B34" t="s"/>
       <c r="C34" t="s"/>
@@ -4931,50 +3629,50 @@
       <c r="G34" t="s"/>
       <c r="H34" t="s"/>
       <c r="I34" t="s"/>
-      <c r="J34" t="s">
-        <v>466</v>
+      <c r="J34" t="n">
+        <v>128470</v>
       </c>
       <c r="K34" t="n">
         <v>0.79</v>
       </c>
-      <c r="L34" t="s">
-        <v>135</v>
+      <c r="L34" t="n">
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
-      <c r="N34" t="s">
-        <v>135</v>
+      <c r="N34" t="n">
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
-      <c r="P34" t="s">
-        <v>466</v>
+      <c r="P34" t="n">
+        <v>128470</v>
       </c>
       <c r="Q34" t="n">
         <v>0.17</v>
       </c>
-      <c r="R34" t="s">
-        <v>135</v>
+      <c r="R34" t="n">
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
-      <c r="T34" t="s">
-        <v>135</v>
+      <c r="T34" t="n">
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
-      <c r="V34" t="s">
-        <v>135</v>
+      <c r="V34" t="n">
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
-      <c r="X34" t="s">
-        <v>135</v>
+      <c r="X34" t="n">
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -4990,100 +3688,100 @@
     </row>
     <row r="35" spans="1:33">
       <c r="A35" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B35" t="s">
-        <v>468</v>
+        <v>65</v>
+      </c>
+      <c r="B35" t="n">
+        <v>158107</v>
       </c>
       <c r="C35" t="n">
         <v>1.13</v>
       </c>
-      <c r="D35" t="s">
-        <v>469</v>
+      <c r="D35" t="n">
+        <v>434397</v>
       </c>
       <c r="E35" t="n">
         <v>2.39</v>
       </c>
-      <c r="F35" t="s">
-        <v>470</v>
+      <c r="F35" t="n">
+        <v>319202</v>
       </c>
       <c r="G35" t="n">
         <v>1.81</v>
       </c>
-      <c r="H35" t="s">
-        <v>471</v>
+      <c r="H35" t="n">
+        <v>1646060</v>
       </c>
       <c r="I35" t="n">
         <v>2.35</v>
       </c>
-      <c r="J35" t="s">
-        <v>472</v>
+      <c r="J35" t="n">
+        <v>243418</v>
       </c>
       <c r="K35" t="n">
         <v>1.5</v>
       </c>
-      <c r="L35" t="s">
-        <v>473</v>
+      <c r="L35" t="n">
+        <v>460625</v>
       </c>
       <c r="M35" t="n">
         <v>2.17</v>
       </c>
-      <c r="N35" t="s">
-        <v>474</v>
+      <c r="N35" t="n">
+        <v>336530</v>
       </c>
       <c r="O35" t="n">
         <v>1.7</v>
       </c>
-      <c r="P35" t="s">
-        <v>475</v>
+      <c r="P35" t="n">
+        <v>1544363</v>
       </c>
       <c r="Q35" t="n">
         <v>1.99</v>
       </c>
-      <c r="R35" t="s">
-        <v>476</v>
+      <c r="R35" t="n">
+        <v>73815</v>
       </c>
       <c r="S35" t="n">
         <v>0.48</v>
       </c>
-      <c r="T35" t="s">
-        <v>477</v>
+      <c r="T35" t="n">
+        <v>145437</v>
       </c>
       <c r="U35" t="n">
         <v>0.86</v>
       </c>
-      <c r="V35" t="s">
-        <v>478</v>
+      <c r="V35" t="n">
+        <v>-233739</v>
       </c>
       <c r="W35" t="n">
         <v>-1.39</v>
       </c>
-      <c r="X35" t="s">
-        <v>479</v>
+      <c r="X35" t="n">
+        <v>74242</v>
       </c>
       <c r="Y35" t="n">
         <v>0.11</v>
       </c>
-      <c r="Z35" t="s">
-        <v>480</v>
+      <c r="Z35" t="n">
+        <v>-4671</v>
       </c>
       <c r="AA35" t="n">
         <v>-0.04</v>
       </c>
-      <c r="AB35" t="s">
-        <v>481</v>
+      <c r="AB35" t="n">
+        <v>131457</v>
       </c>
       <c r="AC35" t="n">
         <v>0.82</v>
       </c>
-      <c r="AD35" t="s">
-        <v>482</v>
+      <c r="AD35" t="n">
+        <v>233579</v>
       </c>
       <c r="AE35" t="n">
         <v>1.55</v>
       </c>
-      <c r="AF35" t="s">
-        <v>483</v>
+      <c r="AF35" t="n">
+        <v>737528</v>
       </c>
       <c r="AG35" t="n">
         <v>1.21</v>
@@ -5091,100 +3789,100 @@
     </row>
     <row r="36" spans="1:33">
       <c r="A36" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="B36" t="s">
-        <v>485</v>
+        <v>66</v>
+      </c>
+      <c r="B36" t="n">
+        <v>527859</v>
       </c>
       <c r="C36" t="n">
         <v>3.79</v>
       </c>
-      <c r="D36" t="s">
-        <v>486</v>
+      <c r="D36" t="n">
+        <v>709391</v>
       </c>
       <c r="E36" t="n">
         <v>3.9</v>
       </c>
-      <c r="F36" t="s">
-        <v>487</v>
+      <c r="F36" t="n">
+        <v>195980</v>
       </c>
       <c r="G36" t="n">
         <v>1.11</v>
       </c>
-      <c r="H36" t="s">
-        <v>488</v>
+      <c r="H36" t="n">
+        <v>2413049</v>
       </c>
       <c r="I36" t="n">
         <v>3.44</v>
       </c>
-      <c r="J36" t="s">
-        <v>489</v>
+      <c r="J36" t="n">
+        <v>446830</v>
       </c>
       <c r="K36" t="n">
         <v>2.75</v>
       </c>
-      <c r="L36" t="s">
-        <v>490</v>
+      <c r="L36" t="n">
+        <v>167141</v>
       </c>
       <c r="M36" t="n">
         <v>0.79</v>
       </c>
-      <c r="N36" t="s">
-        <v>491</v>
+      <c r="N36" t="n">
+        <v>613013</v>
       </c>
       <c r="O36" t="n">
         <v>3.1</v>
       </c>
-      <c r="P36" t="s">
-        <v>492</v>
+      <c r="P36" t="n">
+        <v>2459901</v>
       </c>
       <c r="Q36" t="n">
         <v>3.17</v>
       </c>
-      <c r="R36" t="s">
-        <v>493</v>
+      <c r="R36" t="n">
+        <v>-163808</v>
       </c>
       <c r="S36" t="n">
         <v>-1.07</v>
       </c>
-      <c r="T36" t="s">
-        <v>494</v>
+      <c r="T36" t="n">
+        <v>-9527</v>
       </c>
       <c r="U36" t="n">
         <v>-0.06</v>
       </c>
-      <c r="V36" t="s">
-        <v>495</v>
+      <c r="V36" t="n">
+        <v>134722</v>
       </c>
       <c r="W36" t="n">
         <v>0.8</v>
       </c>
-      <c r="X36" t="s">
-        <v>496</v>
+      <c r="X36" t="n">
+        <v>-269708</v>
       </c>
       <c r="Y36" t="n">
         <v>-0.41</v>
       </c>
-      <c r="Z36" t="s">
-        <v>497</v>
+      <c r="Z36" t="n">
+        <v>-236105</v>
       </c>
       <c r="AA36" t="n">
         <v>-1.81</v>
       </c>
-      <c r="AB36" t="s">
-        <v>498</v>
+      <c r="AB36" t="n">
+        <v>-192674</v>
       </c>
       <c r="AC36" t="n">
         <v>-1.2</v>
       </c>
-      <c r="AD36" t="s">
-        <v>499</v>
+      <c r="AD36" t="n">
+        <v>-268802</v>
       </c>
       <c r="AE36" t="n">
         <v>-1.79</v>
       </c>
-      <c r="AF36" t="s">
-        <v>500</v>
+      <c r="AF36" t="n">
+        <v>-455088</v>
       </c>
       <c r="AG36" t="n">
         <v>-0.75</v>
